--- a/Pathfinder-Analyser.xlsx
+++ b/Pathfinder-Analyser.xlsx
@@ -228,13 +228,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF9EFF94"/>
-      <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -244,6 +237,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="1"/>
@@ -271,8 +271,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF007C00"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFFF70"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -283,8 +283,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF70"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -348,22 +348,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,19 +369,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,7 +401,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -425,10 +427,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -475,9 +473,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Shaded" xfId="20"/>
+    <cellStyle name="Barebranch" xfId="20"/>
     <cellStyle name="Transitional" xfId="21"/>
-    <cellStyle name="Barebranch" xfId="22"/>
+    <cellStyle name="ConditionalStyle_3" xfId="22"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -490,7 +488,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
         <u val="none"/>
       </font>
@@ -517,7 +515,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
         <u val="none"/>
       </font>
@@ -526,7 +524,6 @@
           <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -538,13 +535,13 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="FF9EFF94"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
         <u val="none"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF007C00"/>
+          <bgColor rgb="FFB2B2B2"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -567,12 +564,12 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF007C00"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -592,7 +589,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF9EFF94"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF70"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -737,7 +734,7 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -753,31 +750,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>44</v>
       </c>
     </row>
@@ -789,84 +787,84 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!B2,'Blanks (Northern Latitudes)'!B2)</f>
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="n">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!D2,'Blanks (Northern Latitudes)'!D2)</f>
         <v>7</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="n">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!F2,'Blanks (Northern Latitudes)'!F2)</f>
         <v>8</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="n">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!H2,'Blanks (Northern Latitudes)'!H2)</f>
         <v>9</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="n">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!J2,'Blanks (Northern Latitudes)'!J2)</f>
         <v>10</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="n">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!L2,'Blanks (Northern Latitudes)'!L2)</f>
         <v>11</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="n">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!N2,'Blanks (Northern Latitudes)'!N2)</f>
         <v>12</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="n">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!P2,'Blanks (Northern Latitudes)'!P2)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9" t="n">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!R2,'Blanks (Northern Latitudes)'!R2)</f>
         <v>2</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9" t="n">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!T2,'Blanks (Northern Latitudes)'!T2)</f>
         <v>3</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9" t="n">
+      <c r="U5" s="10"/>
+      <c r="V5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!V2,'Blanks (Northern Latitudes)'!V2)</f>
         <v>4</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9" t="n">
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!X2,'Blanks (Northern Latitudes)'!X2)</f>
         <v>5</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="n">
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!Z2,'Blanks (Northern Latitudes)'!Z2)</f>
         <v>6</v>
       </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9" t="n">
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10" t="n">
         <f aca="false">IF($F$3&lt;0, 'Blanks  (Southern Latitudes)'!AB2,'Blanks (Northern Latitudes)'!AB2)</f>
         <v>7</v>
       </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="3" t="s">
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="10" t="str">
+      <c r="AE5" s="11" t="str">
         <f aca="false">IF(F3&lt;0, "Summer", "Winter")</f>
         <v>Winter</v>
       </c>
-      <c r="AF5" s="10" t="str">
+      <c r="AF5" s="11" t="str">
         <f aca="false">IF(F3&lt;0,"Winter","Summer")</f>
         <v>Summer</v>
       </c>
@@ -876,99 +874,99 @@
       <c r="AI5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="str">
+      <c r="A6" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "JUN", "DEC")</f>
         <v>DEC</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13" t="n">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13" t="n">
+      <c r="H6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="J6" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P6" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" s="13" t="n">
+      <c r="J6" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="U6" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" s="13" t="n">
+      <c r="U6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="W6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="16" t="n">
+      <c r="W6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="17" t="n">
         <f aca="false">SUM(B6:AC6)</f>
         <v>83</v>
       </c>
-      <c r="AE6" s="16" t="n">
+      <c r="AE6" s="17" t="n">
         <f aca="false">AVERAGE(AD8,AD6,AD7,AD9,AD11,AD13)</f>
         <v>85.25</v>
       </c>
-      <c r="AF6" s="16" t="n">
+      <c r="AF6" s="17" t="n">
         <f aca="false">AVERAGE(AD15,AD17,AD16,AD14,AD12,AD10)</f>
         <v>92.3333333333333</v>
       </c>
-      <c r="AH6" s="17" t="n">
+      <c r="AH6" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A6), COUNTIFS(AJ$6:AJ$9, A6))</f>
         <v>1</v>
       </c>
-      <c r="AI6" s="17" t="n">
+      <c r="AI6" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A6), COUNTIFS(AJ$12:AJ$13, A6))</f>
         <v>0</v>
       </c>
@@ -980,83 +978,83 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "JUL", "JAN")</f>
         <v>JAN</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="n">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="H7" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="13" t="n">
+      <c r="H7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="J7" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P7" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S7" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" s="13" t="n">
+      <c r="J7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S7" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="U7" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" s="13" t="n">
+      <c r="U7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="W7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="16" t="n">
+      <c r="W7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="17" t="n">
         <f aca="false">SUM(B7:AC7)</f>
         <v>83</v>
       </c>
-      <c r="AH7" s="17" t="n">
+      <c r="AH7" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A7), COUNTIFS(AJ$6:AJ$9, A7))</f>
         <v>1</v>
       </c>
-      <c r="AI7" s="17" t="n">
+      <c r="AI7" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A7), COUNTIFS(AJ$12:AJ$13, A7))</f>
         <v>0</v>
       </c>
@@ -1068,87 +1066,87 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "MAY", "NOV")</f>
         <v>NOV</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="n">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="J8" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S8" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" s="13" t="n">
+      <c r="J8" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S8" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="V8" s="13" t="n">
+      <c r="V8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="16" t="n">
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="17" t="n">
         <f aca="false">SUM(B8:AC8)</f>
         <v>72.5</v>
       </c>
-      <c r="AH8" s="17" t="n">
+      <c r="AH8" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A8), COUNTIFS(AJ$6:AJ$9, A8))</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="17" t="n">
+      <c r="AI8" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A8), COUNTIFS(AJ$12:AJ$13, A8))</f>
         <v>1</v>
       </c>
@@ -1160,87 +1158,87 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "AUG", "FEB")</f>
         <v>FEB</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="n">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="n">
+      <c r="F9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="H9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="13" t="n">
+      <c r="H9" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="J9" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P9" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S9" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" s="13" t="n">
+      <c r="J9" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="W9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="13" t="n">
+      <c r="W9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="16" t="n">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="17" t="n">
         <f aca="false">SUM(B9:AC9)</f>
         <v>87.5</v>
       </c>
-      <c r="AH9" s="17" t="n">
+      <c r="AH9" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A9), COUNTIFS(AJ$6:AJ$9, A9))</f>
         <v>1</v>
       </c>
-      <c r="AI9" s="17" t="n">
+      <c r="AI9" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A9), COUNTIFS(AJ$12:AJ$13, A9))</f>
         <v>0</v>
       </c>
@@ -1252,177 +1250,177 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="str">
+      <c r="A10" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "APR", "OCT")</f>
         <v>OCT</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="n">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N10" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P10" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R10" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U10" s="13" t="n">
+      <c r="I10" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="16" t="n">
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="17" t="n">
         <f aca="false">SUM(B10:AC10)</f>
         <v>78</v>
       </c>
-      <c r="AH10" s="17" t="n">
+      <c r="AH10" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A10), COUNTIFS(AJ$6:AJ$9, A10))</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="17" t="n">
+      <c r="AI10" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A10), COUNTIFS(AJ$12:AJ$13, A10))</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="str">
+      <c r="A11" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "SEP","MAR")</f>
         <v>MAR</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="n">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="E11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N11" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P11" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V11" s="13" t="n">
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="W11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13" t="n">
+      <c r="W11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="16" t="n">
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="17" t="n">
         <f aca="false">SUM(B11:AC11)</f>
         <v>93.5</v>
       </c>
-      <c r="AH11" s="17" t="n">
+      <c r="AH11" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A11), COUNTIFS(AJ$6:AJ$9, A11))</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="17" t="n">
+      <c r="AI11" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A11), COUNTIFS(AJ$12:AJ$13, A11))</f>
         <v>0</v>
       </c>
@@ -1431,91 +1429,91 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="str">
+      <c r="A12" s="12" t="str">
         <f aca="false">IF(F3&lt;0,"MAR","SEP")</f>
         <v>SEP</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="n">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P12" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R12" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S12" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T12" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V12" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" s="13" t="n">
+      <c r="G12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="16" t="n">
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="17" t="n">
         <f aca="false">SUM(B12:AC12)</f>
         <v>90</v>
       </c>
-      <c r="AH12" s="17" t="n">
+      <c r="AH12" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A12), COUNTIFS(AJ$6:AJ$9, A12))</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="17" t="n">
+      <c r="AI12" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A12), COUNTIFS(AJ$12:AJ$13, A12))</f>
         <v>0</v>
       </c>
@@ -1527,91 +1525,91 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="str">
+      <c r="A13" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "OCT", "APR")</f>
         <v>APR</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="n">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N13" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P13" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S13" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V13" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="13" t="n">
+      <c r="G13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="16" t="n">
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="17" t="n">
         <f aca="false">SUM(B13:AC13)</f>
         <v>92</v>
       </c>
-      <c r="AH13" s="17" t="n">
+      <c r="AH13" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A13), COUNTIFS(AJ$6:AJ$9, A13))</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="17" t="n">
+      <c r="AI13" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A13), COUNTIFS(AJ$12:AJ$13, A13))</f>
         <v>1</v>
       </c>
@@ -1623,371 +1621,371 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="str">
+      <c r="A14" s="12" t="str">
         <f aca="false">IF(F3&lt;0, "FEB", "AUG")</f>
         <v>AUG</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N14" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P14" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R14" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S14" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T14" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U14" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V14" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="13" t="n">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="16" t="n">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="17" t="n">
         <f aca="false">SUM(B14:AC14)</f>
         <v>96</v>
       </c>
-      <c r="AH14" s="17" t="n">
+      <c r="AH14" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A14), COUNTIFS(AJ$6:AJ$9, A14))</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="17" t="n">
+      <c r="AI14" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A14), COUNTIFS(AJ$12:AJ$13, A14))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="str">
+      <c r="A15" s="12" t="str">
         <f aca="false">IF(F3&lt;0,"NOV","MAY")</f>
         <v>MAY</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P15" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R15" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U15" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V15" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" s="13" t="n">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="16" t="n">
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="17" t="n">
         <f aca="false">SUM(B15:AC15)</f>
         <v>97</v>
       </c>
-      <c r="AH15" s="17" t="n">
+      <c r="AH15" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A15), COUNTIFS(AJ$6:AJ$9, A15))</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="17" t="n">
+      <c r="AI15" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A15), COUNTIFS(AJ$12:AJ$13, A15))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="str">
+      <c r="A16" s="12" t="str">
         <f aca="false">IF(F3&lt;0,"JAN", "JUL")</f>
         <v>JUL</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M16" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P16" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R16" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S16" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T16" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U16" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V16" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W16" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" s="13" t="n">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N16" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="16" t="n">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="17" t="n">
         <f aca="false">SUM(B16:AC16)</f>
         <v>97</v>
       </c>
-      <c r="AH16" s="17" t="n">
+      <c r="AH16" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A16), COUNTIFS(AJ$6:AJ$9, A16))</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="17" t="n">
+      <c r="AI16" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A16), COUNTIFS(AJ$12:AJ$13, A16))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="str">
+      <c r="A17" s="12" t="str">
         <f aca="false">IF(F3&lt;0,"DEC","JUN")</f>
         <v>JUN</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N17" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P17" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T17" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V17" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" s="13" t="n">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N17" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P17" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S17" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="16" t="n">
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="17" t="n">
         <f aca="false">SUM(B17:AC17)</f>
         <v>96</v>
       </c>
-      <c r="AH17" s="17" t="n">
+      <c r="AH17" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$6:AK$9, A17), COUNTIFS(AJ$6:AJ$9, A17))</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="17" t="n">
+      <c r="AI17" s="12" t="n">
         <f aca="false">IF(AND($F$3&lt;0), COUNTIFS(AK$12:AK$13, A17), COUNTIFS(AJ$12:AJ$13, A17))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2003,1148 +2001,1148 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!B2, 'Blanks (Northern Latitudes)'!B2)</f>
         <v>6</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="n">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!D2, 'Blanks (Northern Latitudes)'!D2)</f>
         <v>5</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="n">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!F2, 'Blanks (Northern Latitudes)'!F2)</f>
         <v>4</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="n">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!H2, 'Blanks (Northern Latitudes)'!H2)</f>
         <v>3</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="n">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!J2, 'Blanks (Northern Latitudes)'!J2)</f>
         <v>2</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="n">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!L2, 'Blanks (Northern Latitudes)'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9" t="n">
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!N2, 'Blanks (Northern Latitudes)'!N2)</f>
         <v>12</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9" t="n">
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!P2, 'Blanks (Northern Latitudes)'!P2)</f>
         <v>11</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9" t="n">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!R2, 'Blanks (Northern Latitudes)'!R2)</f>
         <v>10</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9" t="n">
+      <c r="S21" s="10"/>
+      <c r="T21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!T2, 'Blanks (Northern Latitudes)'!T2)</f>
         <v>9</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9" t="n">
+      <c r="U21" s="10"/>
+      <c r="V21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!V2, 'Blanks (Northern Latitudes)'!V2)</f>
         <v>8</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9" t="n">
+      <c r="W21" s="10"/>
+      <c r="X21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!X2, 'Blanks (Northern Latitudes)'!X2)</f>
         <v>7</v>
       </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9" t="n">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!Z2, 'Blanks (Northern Latitudes)'!Z2)</f>
         <v>6</v>
       </c>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9" t="n">
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10" t="n">
         <f aca="false">IF($F$19&lt;0, 'Blanks  (Southern Latitudes)'!AB2, 'Blanks (Northern Latitudes)'!AB2)</f>
         <v>5</v>
       </c>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="3" t="s">
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE21" s="10" t="str">
+      <c r="AE21" s="11" t="str">
         <f aca="false">IF(F19&lt;0, "Summer", "Winter")</f>
         <v>Summer</v>
       </c>
-      <c r="AF21" s="10" t="str">
+      <c r="AF21" s="11" t="str">
         <f aca="false">IF(F19&lt;0,"Winter","Summer")</f>
         <v>Winter</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="str">
+      <c r="A22" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "JUN", "DEC")</f>
         <v>JUN</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="n">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="13" t="n">
+      <c r="H22" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="J22" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L22" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M22" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N22" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P22" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R22" s="13" t="n">
+      <c r="J22" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R22" s="14" t="n">
         <v>3.5</v>
       </c>
-      <c r="S22" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T22" s="13" t="n">
+      <c r="S22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="U22" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" s="13" t="n">
+      <c r="U22" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="13" t="n">
+      <c r="W22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="16" t="n">
+      <c r="AD22" s="17" t="n">
         <f aca="false">SUM(B22:AC22)</f>
         <v>74.5</v>
       </c>
-      <c r="AE22" s="16" t="n">
+      <c r="AE22" s="17" t="n">
         <f aca="false">AVERAGE(AD24,AD22,AD23,AD25,AD27,AD29)</f>
         <v>83.8333333333333</v>
       </c>
-      <c r="AF22" s="16" t="n">
+      <c r="AF22" s="17" t="n">
         <f aca="false">AVERAGE(AD31,AD33,AD32,AD30,AD28,AD26)</f>
         <v>93.9166666666667</v>
       </c>
-      <c r="AH22" s="17" t="n">
+      <c r="AH22" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A22), COUNTIFS(AJ$6:AJ$9, A22))</f>
         <v>1</v>
       </c>
-      <c r="AI22" s="17" t="n">
+      <c r="AI22" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A22), COUNTIFS(AJ$12:AJ$13, A22))</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="str">
+      <c r="A23" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "JUL", "JAN")</f>
         <v>JUL</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="n">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="H23" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L23" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M23" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N23" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O23" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P23" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R23" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S23" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T23" s="13" t="n">
+      <c r="H23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N23" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S23" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="U23" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" s="13" t="n">
+      <c r="U23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W23" s="13" t="n">
+      <c r="W23" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="16" t="n">
+      <c r="AD23" s="17" t="n">
         <f aca="false">SUM(B23:AC23)</f>
         <v>82</v>
       </c>
-      <c r="AH23" s="17" t="n">
+      <c r="AH23" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A23), COUNTIFS(AJ$6:AJ$9, A23))</f>
         <v>1</v>
       </c>
-      <c r="AI23" s="17" t="n">
+      <c r="AI23" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A23), COUNTIFS(AJ$12:AJ$13, A23))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="str">
+      <c r="A24" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "MAY", "NOV")</f>
         <v>MAY</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="n">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="13" t="n">
+      <c r="F24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="13" t="n">
+      <c r="G24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K24" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L24" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N24" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P24" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R24" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S24" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" s="13" t="n">
+      <c r="H24" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L24" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N24" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P24" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U24" s="13" t="n">
+      <c r="U24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="V24" s="13" t="n">
+      <c r="V24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="13" t="n">
+      <c r="W24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X24" s="13" t="n">
+      <c r="X24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="16" t="n">
+      <c r="AD24" s="17" t="n">
         <f aca="false">SUM(B24:AC24)</f>
         <v>74</v>
       </c>
-      <c r="AH24" s="17" t="n">
+      <c r="AH24" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A24), COUNTIFS(AJ$6:AJ$9, A24))</f>
         <v>0</v>
       </c>
-      <c r="AI24" s="17" t="n">
+      <c r="AI24" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A24), COUNTIFS(AJ$12:AJ$13, A24))</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="str">
+      <c r="A25" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "AUG", "FEB")</f>
         <v>AUG</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="n">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K25" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M25" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N25" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P25" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R25" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S25" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T25" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U25" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" s="13" t="n">
+      <c r="F25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M25" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N25" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P25" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R25" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S25" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U25" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W25" s="13" t="n">
+      <c r="W25" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X25" s="13" t="n">
+      <c r="X25" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="16" t="n">
+      <c r="AD25" s="17" t="n">
         <f aca="false">SUM(B25:AC25)</f>
         <v>90</v>
       </c>
-      <c r="AH25" s="17" t="n">
+      <c r="AH25" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A25), COUNTIFS(AJ$6:AJ$9, A25))</f>
         <v>1</v>
       </c>
-      <c r="AI25" s="17" t="n">
+      <c r="AI25" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A25), COUNTIFS(AJ$12:AJ$13, A25))</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="str">
+      <c r="A26" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "APR", "OCT")</f>
         <v>APR</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="n">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="13" t="n">
+      <c r="G26" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="H26" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K26" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M26" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N26" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P26" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q26" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R26" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S26" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T26" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U26" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V26" s="13" t="n">
+      <c r="H26" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P26" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S26" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U26" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W26" s="13" t="n">
+      <c r="W26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X26" s="13" t="n">
+      <c r="X26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="16" t="n">
+      <c r="AD26" s="17" t="n">
         <f aca="false">SUM(B26:AC26)</f>
         <v>87.5</v>
       </c>
-      <c r="AH26" s="17" t="n">
+      <c r="AH26" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A26), COUNTIFS(AJ$6:AJ$9, A26))</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="17" t="n">
+      <c r="AI26" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A26), COUNTIFS(AJ$12:AJ$13, A26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="str">
+      <c r="A27" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "SEP","MAR")</f>
         <v>SEP</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="n">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K27" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N27" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O27" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P27" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R27" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S27" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U27" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" s="13" t="n">
+      <c r="E27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M27" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N27" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P27" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S27" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="W27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" s="13" t="n">
+      <c r="W27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y27" s="13" t="n">
+      <c r="Y27" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="16" t="n">
+      <c r="AD27" s="17" t="n">
         <f aca="false">SUM(B27:AC27)</f>
         <v>89.5</v>
       </c>
-      <c r="AH27" s="17" t="n">
+      <c r="AH27" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A27), COUNTIFS(AJ$6:AJ$9, A27))</f>
         <v>1</v>
       </c>
-      <c r="AI27" s="17" t="n">
+      <c r="AI27" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A27), COUNTIFS(AJ$12:AJ$13, A27))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="str">
+      <c r="A28" s="12" t="str">
         <f aca="false">IF(F19&lt;0,"MAR","SEP")</f>
         <v>MAR</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="n">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K28" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M28" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N28" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P28" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q28" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R28" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S28" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T28" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U28" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W28" s="13" t="n">
+      <c r="F28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N28" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="X28" s="13" t="n">
+      <c r="X28" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y28" s="13" t="n">
+      <c r="Y28" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="16" t="n">
+      <c r="AD28" s="17" t="n">
         <f aca="false">SUM(B28:AC28)</f>
         <v>91</v>
       </c>
-      <c r="AH28" s="17" t="n">
+      <c r="AH28" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A28), COUNTIFS(AJ$6:AJ$9, A28))</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="17" t="n">
+      <c r="AI28" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A28), COUNTIFS(AJ$12:AJ$13, A28))</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="str">
+      <c r="A29" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "OCT", "APR")</f>
         <v>OCT</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="n">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K29" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L29" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M29" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N29" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P29" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R29" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S29" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T29" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U29" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V29" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W29" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="13" t="n">
+      <c r="F29" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M29" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N29" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U29" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y29" s="13" t="n">
+      <c r="Y29" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="16" t="n">
+      <c r="AD29" s="17" t="n">
         <f aca="false">SUM(B29:AC29)</f>
         <v>93</v>
       </c>
-      <c r="AH29" s="17" t="n">
+      <c r="AH29" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A29), COUNTIFS(AJ$6:AJ$9, A29))</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="17" t="n">
+      <c r="AI29" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A29), COUNTIFS(AJ$12:AJ$13, A29))</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="str">
+      <c r="A30" s="12" t="str">
         <f aca="false">IF(F19&lt;0, "FEB", "AUG")</f>
         <v>FEB</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="n">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="E30" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I30" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L30" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M30" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N30" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O30" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P30" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T30" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U30" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V30" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" s="13" t="n">
+      <c r="E30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M30" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N30" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O30" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P30" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R30" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T30" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y30" s="13" t="n">
+      <c r="Y30" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="16" t="n">
+      <c r="AD30" s="17" t="n">
         <f aca="false">SUM(B30:AC30)</f>
         <v>95.5</v>
       </c>
-      <c r="AH30" s="17" t="n">
+      <c r="AH30" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A30), COUNTIFS(AJ$6:AJ$9, A30))</f>
         <v>0</v>
       </c>
-      <c r="AI30" s="17" t="n">
+      <c r="AI30" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A30), COUNTIFS(AJ$12:AJ$13, A30))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="str">
+      <c r="A31" s="12" t="str">
         <f aca="false">IF(F19&lt;0,"NOV","MAY")</f>
         <v>NOV</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K31" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L31" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M31" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N31" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O31" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P31" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q31" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R31" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S31" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T31" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V31" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X31" s="13" t="n">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N31" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O31" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P31" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R31" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S31" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y31" s="13" t="n">
+      <c r="Y31" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="16" t="n">
+      <c r="AD31" s="17" t="n">
         <f aca="false">SUM(B31:AC31)</f>
         <v>97</v>
       </c>
-      <c r="AH31" s="17" t="n">
+      <c r="AH31" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A31), COUNTIFS(AJ$6:AJ$9, A31))</f>
         <v>0</v>
       </c>
-      <c r="AI31" s="17" t="n">
+      <c r="AI31" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A31), COUNTIFS(AJ$12:AJ$13, A31))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="str">
+      <c r="A32" s="12" t="str">
         <f aca="false">IF(F19&lt;0,"JAN", "JUL")</f>
         <v>JAN</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K32" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L32" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M32" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N32" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O32" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P32" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R32" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S32" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T32" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U32" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V32" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W32" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" s="13" t="n">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M32" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P32" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R32" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y32" s="13" t="n">
+      <c r="Y32" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="16" t="n">
+      <c r="AD32" s="17" t="n">
         <f aca="false">SUM(B32:AC32)</f>
         <v>97</v>
       </c>
-      <c r="AH32" s="17" t="n">
+      <c r="AH32" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A32), COUNTIFS(AJ$6:AJ$9, A32))</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="17" t="n">
+      <c r="AI32" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A32), COUNTIFS(AJ$12:AJ$13, A32))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="str">
+      <c r="A33" s="12" t="str">
         <f aca="false">IF(F19&lt;0,"DEC","JUN")</f>
         <v>DEC</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="n">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="D33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M33" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N33" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O33" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P33" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="R33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T33" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U33" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V33" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W33" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X33" s="13" t="n">
+      <c r="D33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P33" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T33" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Y33" s="13" t="n">
+      <c r="Y33" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Z33" s="13" t="n">
+      <c r="Z33" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="AA33" s="13"/>
+      <c r="AA33" s="14"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="16" t="n">
+      <c r="AD33" s="17" t="n">
         <f aca="false">SUM(B33:AC33)</f>
         <v>95.5</v>
       </c>
-      <c r="AH33" s="17" t="n">
+      <c r="AH33" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$6:AK$9, A33), COUNTIFS(AJ$6:AJ$9, A33))</f>
         <v>0</v>
       </c>
-      <c r="AI33" s="17" t="n">
+      <c r="AI33" s="12" t="n">
         <f aca="false">IF(AND($F$19&lt;0), COUNTIFS(AK$12:AK$13, A33), COUNTIFS(AJ$12:AJ$13, A33))</f>
         <v>0</v>
       </c>
@@ -3303,62 +3301,62 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="n">
+      <c r="B2" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="n">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="n">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="n">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="10"/>
       <c r="AD2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4330,62 +4328,62 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="n">
+      <c r="B17" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9" t="n">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="n">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="n">
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="10"/>
       <c r="AD17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5345,62 +5343,62 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="n">
+      <c r="B32" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="n">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="n">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="n">
+      <c r="M32" s="10"/>
+      <c r="N32" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="10"/>
       <c r="AD32" s="2" t="s">
         <v>21</v>
       </c>
@@ -6467,62 +6465,62 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="n">
+      <c r="B2" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="n">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="n">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="n">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="9"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="10"/>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7506,62 +7504,62 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="n">
+      <c r="B17" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="n">
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9" t="n">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9" t="n">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="9"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="10"/>
       <c r="AD17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8545,62 +8543,62 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="n">
+      <c r="B32" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9" t="n">
+      <c r="O32" s="10"/>
+      <c r="P32" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9" t="n">
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9" t="n">
+      <c r="S32" s="10"/>
+      <c r="T32" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="9"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="10"/>
       <c r="AD32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9593,62 +9591,62 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
-      <c r="B47" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9" t="n">
+      <c r="B47" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9" t="n">
+      <c r="O47" s="10"/>
+      <c r="P47" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9" t="n">
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9" t="n">
+      <c r="S47" s="10"/>
+      <c r="T47" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="9"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="10"/>
       <c r="AD47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10628,62 +10626,62 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9" t="n">
+      <c r="B62" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9" t="n">
+      <c r="O62" s="10"/>
+      <c r="P62" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9" t="n">
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9" t="n">
+      <c r="S62" s="10"/>
+      <c r="T62" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="9"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="10"/>
       <c r="AD62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11657,62 +11655,62 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9" t="n">
+      <c r="B77" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9" t="n">
+      <c r="O77" s="10"/>
+      <c r="P77" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9" t="n">
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9" t="n">
+      <c r="S77" s="10"/>
+      <c r="T77" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC77" s="9"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC77" s="10"/>
       <c r="AD77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12676,62 +12674,62 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9" t="n">
+      <c r="B92" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9" t="n">
+      <c r="O92" s="10"/>
+      <c r="P92" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9" t="n">
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9" t="n">
+      <c r="S92" s="10"/>
+      <c r="T92" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA92" s="9"/>
-      <c r="AB92" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC92" s="9"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC92" s="10"/>
       <c r="AD92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,62 +13703,62 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9" t="n">
+      <c r="B107" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9" t="n">
+      <c r="O107" s="10"/>
+      <c r="P107" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9" t="n">
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9" t="n">
+      <c r="S107" s="10"/>
+      <c r="T107" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y107" s="9"/>
-      <c r="Z107" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA107" s="9"/>
-      <c r="AB107" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC107" s="9"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y107" s="10"/>
+      <c r="Z107" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA107" s="10"/>
+      <c r="AB107" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC107" s="10"/>
       <c r="AD107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14743,62 +14741,62 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
-      <c r="B122" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9" t="n">
+      <c r="B122" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9" t="n">
+      <c r="O122" s="10"/>
+      <c r="P122" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9" t="n">
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9" t="n">
+      <c r="S122" s="10"/>
+      <c r="T122" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA122" s="9"/>
-      <c r="AB122" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC122" s="9"/>
+      <c r="U122" s="10"/>
+      <c r="V122" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y122" s="10"/>
+      <c r="Z122" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA122" s="10"/>
+      <c r="AB122" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC122" s="10"/>
       <c r="AD122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15757,62 +15755,62 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
-      <c r="B137" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9" t="n">
+      <c r="B137" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9" t="n">
+      <c r="O137" s="10"/>
+      <c r="P137" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9" t="n">
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9" t="n">
+      <c r="S137" s="10"/>
+      <c r="T137" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA137" s="9"/>
-      <c r="AB137" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC137" s="9"/>
+      <c r="U137" s="10"/>
+      <c r="V137" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W137" s="10"/>
+      <c r="X137" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y137" s="10"/>
+      <c r="Z137" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA137" s="10"/>
+      <c r="AB137" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC137" s="10"/>
       <c r="AD137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Pathfinder-Analyser.xlsx
+++ b/Pathfinder-Analyser.xlsx
@@ -354,7 +354,9 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -369,7 +371,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +477,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Barebranch" xfId="20"/>
     <cellStyle name="Transitional" xfId="21"/>
-    <cellStyle name="ConditionalStyle_3" xfId="22"/>
+    <cellStyle name="ConditionalStyle_3 1" xfId="22"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -734,7 +736,7 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Pathfinder-Analyser.xlsx
+++ b/Pathfinder-Analyser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">Site %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer</t>
   </si>
   <si>
     <t xml:space="preserve">Bare</t>
@@ -371,7 +377,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,7 +409,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,7 +631,7 @@
   </sheetPr>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -735,8 +741,8 @@
   </sheetPr>
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -862,25 +868,23 @@
       <c r="AD5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="11" t="str">
-        <f aca="false">IF(F3&lt;0, "Summer", "Winter")</f>
-        <v>Winter</v>
-      </c>
-      <c r="AF5" s="11" t="str">
-        <f aca="false">IF(F3&lt;0,"Winter","Summer")</f>
-        <v>Summer</v>
+      <c r="AE5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +1992,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
@@ -2076,13 +2080,11 @@
       <c r="AD21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE21" s="11" t="str">
-        <f aca="false">IF(F19&lt;0, "Summer", "Winter")</f>
-        <v>Summer</v>
-      </c>
-      <c r="AF21" s="11" t="str">
-        <f aca="false">IF(F19&lt;0,"Winter","Summer")</f>
-        <v>Winter</v>
+      <c r="AE21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,7 +3225,7 @@
   </sheetPr>
   <dimension ref="F9:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3257,7 +3259,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3283,7 +3285,7 @@
   </sheetPr>
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3298,7 +3300,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3367,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3438,7 +3440,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3511,7 +3513,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3584,7 +3586,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3661,7 +3663,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3738,7 +3740,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3819,7 +3821,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3900,7 +3902,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3981,7 +3983,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="n">
@@ -4066,7 +4068,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="n">
@@ -4151,7 +4153,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="n">
@@ -4236,7 +4238,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
@@ -4325,7 +4327,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4394,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4465,7 +4467,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4538,7 +4540,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4615,7 +4617,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4692,7 +4694,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4769,7 +4771,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4850,7 +4852,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4931,7 +4933,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5012,7 +5014,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5093,7 +5095,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5174,7 +5176,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5255,7 +5257,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="n">
@@ -5340,7 +5342,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,7 +5409,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5480,7 +5482,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5557,7 +5559,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5634,7 +5636,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5715,7 +5717,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5796,7 +5798,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5877,7 +5879,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5958,7 +5960,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -6039,7 +6041,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6120,7 +6122,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="n">
@@ -6205,7 +6207,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="n">
@@ -6290,7 +6292,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>1</v>
@@ -6437,7 +6439,7 @@
   </sheetPr>
   <dimension ref="A1:AE174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -6454,15 +6456,15 @@
   <sheetData>
     <row r="1" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
       <c r="AD1" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,7 +6529,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6608,7 +6610,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6689,7 +6691,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6770,7 +6772,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6851,7 +6853,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6932,7 +6934,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7013,7 +7015,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7094,7 +7096,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7175,7 +7177,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7256,7 +7258,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7337,7 +7339,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7418,7 +7420,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7499,7 +7501,7 @@
     </row>
     <row r="16" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="26"/>
@@ -7566,7 +7568,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7647,7 +7649,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7728,7 +7730,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7809,7 +7811,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7890,7 +7892,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7971,7 +7973,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8052,7 +8054,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8133,7 +8135,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8214,7 +8216,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8295,7 +8297,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8376,7 +8378,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8457,7 +8459,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8538,7 +8540,7 @@
     </row>
     <row r="31" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="26"/>
@@ -8605,7 +8607,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8686,7 +8688,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8767,7 +8769,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8848,7 +8850,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8929,7 +8931,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9010,7 +9012,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9091,7 +9093,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9172,7 +9174,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9253,7 +9255,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9334,7 +9336,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9413,12 +9415,12 @@
         <v>X</v>
       </c>
       <c r="AE42" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9497,12 +9499,12 @@
         <v>X</v>
       </c>
       <c r="AE43" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9581,12 +9583,12 @@
         <v>X</v>
       </c>
       <c r="AE44" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N46" s="25"/>
       <c r="O46" s="26"/>
@@ -9653,7 +9655,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9730,7 +9732,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9811,7 +9813,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9892,7 +9894,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9973,7 +9975,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10054,7 +10056,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10135,7 +10137,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10216,7 +10218,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10297,7 +10299,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10378,7 +10380,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10459,7 +10461,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10540,7 +10542,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -10621,7 +10623,7 @@
     </row>
     <row r="61" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N61" s="25"/>
       <c r="O61" s="26"/>
@@ -10688,7 +10690,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10765,7 +10767,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10842,7 +10844,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10919,7 +10921,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10994,7 +10996,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -11075,7 +11077,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -11156,7 +11158,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -11237,7 +11239,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -11318,7 +11320,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -11399,7 +11401,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -11480,7 +11482,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="n">
@@ -11565,7 +11567,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="n">
@@ -11650,7 +11652,7 @@
     </row>
     <row r="76" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N76" s="25"/>
       <c r="O76" s="26"/>
@@ -11717,7 +11719,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -11790,7 +11792,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -11863,7 +11865,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -11934,7 +11936,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -12009,7 +12011,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -12086,7 +12088,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -12167,7 +12169,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -12248,7 +12250,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -12329,7 +12331,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="n">
@@ -12414,7 +12416,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="n">
@@ -12499,7 +12501,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="n">
@@ -12584,7 +12586,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="n">
@@ -12669,7 +12671,7 @@
     </row>
     <row r="91" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N91" s="25"/>
       <c r="O91" s="26"/>
@@ -12736,7 +12738,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -12809,7 +12811,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -12886,7 +12888,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -12963,7 +12965,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -13038,7 +13040,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -13119,7 +13121,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -13200,7 +13202,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -13281,7 +13283,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -13362,7 +13364,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -13443,7 +13445,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="n">
@@ -13528,7 +13530,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="n">
@@ -13613,7 +13615,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="n">
@@ -13698,7 +13700,7 @@
     </row>
     <row r="106" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N106" s="25"/>
       <c r="O106" s="26"/>
@@ -13765,7 +13767,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -13837,7 +13839,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -13914,7 +13916,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -13991,7 +13993,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -14072,7 +14074,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -14153,7 +14155,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -14234,7 +14236,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -14315,7 +14317,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -14396,7 +14398,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -14477,7 +14479,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="n">
@@ -14562,7 +14564,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="n">
@@ -14647,7 +14649,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>1</v>
@@ -14736,7 +14738,7 @@
     </row>
     <row r="121" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N121" s="25"/>
       <c r="O121" s="26"/>
@@ -14803,7 +14805,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -14875,7 +14877,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -14948,7 +14950,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -15025,7 +15027,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -15102,7 +15104,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -15179,7 +15181,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -15260,7 +15262,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -15341,7 +15343,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -15422,7 +15424,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -15503,7 +15505,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -15584,7 +15586,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -15665,7 +15667,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="n">
@@ -15750,7 +15752,7 @@
     </row>
     <row r="136" s="24" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N136" s="25"/>
       <c r="O136" s="26"/>
@@ -15817,7 +15819,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -15889,7 +15891,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -15962,7 +15964,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -16035,7 +16037,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -16112,7 +16114,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -16189,7 +16191,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -16270,7 +16272,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -16351,7 +16353,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -16432,7 +16434,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="n">
@@ -16517,7 +16519,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="n">
@@ -16602,7 +16604,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="n">
@@ -16687,7 +16689,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>1</v>

--- a/Pathfinder-Analyser.xlsx
+++ b/Pathfinder-Analyser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Instructions</t>
   </si>
   <si>
-    <t xml:space="preserve">Make sure to enter the site latitude on the working sheet (negative for southern hemisphere, positive for northern)</t>
+    <t xml:space="preserve">Make sure to enter the site hemisphere on the working sheet</t>
   </si>
   <si>
     <t xml:space="preserve">For solid objects and evergreens:</t>
@@ -435,7 +435,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,7 +463,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,7 +601,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="10"/>
         <u val="none"/>
       </font>
@@ -610,7 +610,6 @@
           <bgColor rgb="FFE5E5E5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -694,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -804,7 +803,7 @@
   </sheetPr>
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Pathfinder-Analyser.xlsx
+++ b/Pathfinder-Analyser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -378,11 +378,11 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,11 +459,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,7 +597,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF333333"/>
         <sz val="10"/>
         <u val="none"/>
       </font>
@@ -616,10 +612,6 @@
         <name val="Verdana"/>
         <charset val="1"/>
         <family val="0"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
       </font>
     </dxf>
   </dxfs>
@@ -693,7 +685,7 @@
   </sheetPr>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -803,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,72 +851,72 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!B2,'Blanks (Northern Latitudes)'!B2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!B2,'Blanks (Northern Latitudes)'!B2)</f>
         <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!D2,'Blanks (Northern Latitudes)'!D2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!D2,'Blanks (Northern Latitudes)'!D2)</f>
         <v>7</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!F2,'Blanks (Northern Latitudes)'!F2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!F2,'Blanks (Northern Latitudes)'!F2)</f>
         <v>8</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!H2,'Blanks (Northern Latitudes)'!H2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!H2,'Blanks (Northern Latitudes)'!H2)</f>
         <v>9</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!J2,'Blanks (Northern Latitudes)'!J2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!J2,'Blanks (Northern Latitudes)'!J2)</f>
         <v>10</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!L2,'Blanks (Northern Latitudes)'!L2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!L2,'Blanks (Northern Latitudes)'!L2)</f>
         <v>11</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!N2,'Blanks (Northern Latitudes)'!N2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!N2,'Blanks (Northern Latitudes)'!N2)</f>
         <v>12</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!P2,'Blanks (Northern Latitudes)'!P2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!P2,'Blanks (Northern Latitudes)'!P2)</f>
         <v>1</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!R2,'Blanks (Northern Latitudes)'!R2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!R2,'Blanks (Northern Latitudes)'!R2)</f>
         <v>2</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!T2,'Blanks (Northern Latitudes)'!T2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!T2,'Blanks (Northern Latitudes)'!T2)</f>
         <v>3</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!V2,'Blanks (Northern Latitudes)'!V2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!V2,'Blanks (Northern Latitudes)'!V2)</f>
         <v>4</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!X2,'Blanks (Northern Latitudes)'!X2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!X2,'Blanks (Northern Latitudes)'!X2)</f>
         <v>5</v>
       </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!Z2,'Blanks (Northern Latitudes)'!Z2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!Z2,'Blanks (Northern Latitudes)'!Z2)</f>
         <v>6</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11" t="n">
-        <f aca="false">IF($D$3&lt;0, 'Blanks  (Southern Latitudes)'!AB2,'Blanks (Northern Latitudes)'!AB2)</f>
+        <f aca="false">IF($D$3 = "S", 'Blanks  (Southern Latitudes)'!AB2,'Blanks (Northern Latitudes)'!AB2)</f>
         <v>7</v>
       </c>
       <c r="AC5" s="11"/>
@@ -1031,15 +1023,15 @@
         <f aca="false">AVERAGE(AD15,AD17,AD16,AD14,AD12,AD10)</f>
         <v>92.3333333333333</v>
       </c>
-      <c r="AH6" s="19" t="n">
+      <c r="AH6" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A6),COUNTIFS(AK$6:AK$9,A6))</f>
         <v>1</v>
       </c>
-      <c r="AI6" s="19" t="n">
+      <c r="AI6" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A6),COUNTIFS(AK$12:AK$13,A6))</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="19"/>
+      <c r="AJ6" s="13"/>
       <c r="AK6" s="0" t="s">
         <v>29</v>
       </c>
@@ -1120,15 +1112,15 @@
         <f aca="false">SUM(B7:AC7)</f>
         <v>83</v>
       </c>
-      <c r="AH7" s="19" t="n">
+      <c r="AH7" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A7),COUNTIFS(AK$6:AK$9,A7))</f>
         <v>1</v>
       </c>
-      <c r="AI7" s="19" t="n">
+      <c r="AI7" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A7),COUNTIFS(AK$12:AK$13,A7))</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="19"/>
+      <c r="AJ7" s="13"/>
       <c r="AK7" s="0" t="s">
         <v>31</v>
       </c>
@@ -1213,15 +1205,15 @@
         <f aca="false">SUM(B8:AC8)</f>
         <v>72.5</v>
       </c>
-      <c r="AH8" s="19" t="n">
+      <c r="AH8" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A8),COUNTIFS(AK$6:AK$9,A8))</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="19" t="n">
+      <c r="AI8" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A8),COUNTIFS(AK$12:AK$13,A8))</f>
         <v>1</v>
       </c>
-      <c r="AJ8" s="19"/>
+      <c r="AJ8" s="13"/>
       <c r="AK8" s="0" t="s">
         <v>33</v>
       </c>
@@ -1306,15 +1298,15 @@
         <f aca="false">SUM(B9:AC9)</f>
         <v>87.5</v>
       </c>
-      <c r="AH9" s="19" t="n">
+      <c r="AH9" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A9),COUNTIFS(AK$6:AK$9,A9))</f>
         <v>1</v>
       </c>
-      <c r="AI9" s="19" t="n">
+      <c r="AI9" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A9),COUNTIFS(AK$12:AK$13,A9))</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="19"/>
+      <c r="AJ9" s="13"/>
       <c r="AK9" s="0" t="s">
         <v>35</v>
       </c>
@@ -1399,15 +1391,15 @@
         <f aca="false">SUM(B10:AC10)</f>
         <v>78</v>
       </c>
-      <c r="AH10" s="19" t="n">
+      <c r="AH10" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A10),COUNTIFS(AK$6:AK$9,A10))</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="19" t="n">
+      <c r="AI10" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A10),COUNTIFS(AK$12:AK$13,A10))</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="19"/>
+      <c r="AJ10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="str">
@@ -1490,15 +1482,15 @@
         <f aca="false">SUM(B11:AC11)</f>
         <v>93.5</v>
       </c>
-      <c r="AH11" s="19" t="n">
+      <c r="AH11" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A11),COUNTIFS(AK$6:AK$9,A11))</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="19" t="n">
+      <c r="AI11" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A11),COUNTIFS(AK$12:AK$13,A11))</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="19"/>
+      <c r="AJ11" s="13"/>
       <c r="AK11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1584,15 +1576,15 @@
         <f aca="false">SUM(B12:AC12)</f>
         <v>90</v>
       </c>
-      <c r="AH12" s="19" t="n">
+      <c r="AH12" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A12),COUNTIFS(AK$6:AK$9,A12))</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="19" t="n">
+      <c r="AI12" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A12),COUNTIFS(AK$12:AK$13,A12))</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="19"/>
+      <c r="AJ12" s="13"/>
       <c r="AK12" s="0" t="s">
         <v>38</v>
       </c>
@@ -1681,15 +1673,15 @@
         <f aca="false">SUM(B13:AC13)</f>
         <v>92</v>
       </c>
-      <c r="AH13" s="19" t="n">
+      <c r="AH13" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A13),COUNTIFS(AK$6:AK$9,A13))</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="19" t="n">
+      <c r="AI13" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A13),COUNTIFS(AK$12:AK$13,A13))</f>
         <v>1</v>
       </c>
-      <c r="AJ13" s="19"/>
+      <c r="AJ13" s="13"/>
       <c r="AK13" s="0" t="s">
         <v>40</v>
       </c>
@@ -1778,15 +1770,15 @@
         <f aca="false">SUM(B14:AC14)</f>
         <v>96</v>
       </c>
-      <c r="AH14" s="19" t="n">
+      <c r="AH14" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A14),COUNTIFS(AK$6:AK$9,A14))</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="19" t="n">
+      <c r="AI14" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A14),COUNTIFS(AK$12:AK$13,A14))</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="19"/>
+      <c r="AJ14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="str">
@@ -1869,15 +1861,15 @@
         <f aca="false">SUM(B15:AC15)</f>
         <v>97</v>
       </c>
-      <c r="AH15" s="19" t="n">
+      <c r="AH15" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A15),COUNTIFS(AK$6:AK$9,A15))</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="19" t="n">
+      <c r="AI15" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A15),COUNTIFS(AK$12:AK$13,A15))</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="19"/>
+      <c r="AJ15" s="13"/>
       <c r="AK15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +1926,7 @@
       <c r="R16" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="S16" s="20" t="n">
+      <c r="S16" s="19" t="n">
         <v>6</v>
       </c>
       <c r="T16" s="15" t="n">
@@ -1963,15 +1955,15 @@
         <f aca="false">SUM(B16:AC16)</f>
         <v>97</v>
       </c>
-      <c r="AH16" s="19" t="n">
+      <c r="AH16" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A16),COUNTIFS(AK$6:AK$9,A16))</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="19" t="n">
+      <c r="AI16" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A16),COUNTIFS(AK$12:AK$13,A16))</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="19"/>
+      <c r="AJ16" s="13"/>
       <c r="AK16" s="0" t="s">
         <v>19</v>
       </c>
@@ -2061,15 +2053,15 @@
         <f aca="false">SUM(B17:AC17)</f>
         <v>96</v>
       </c>
-      <c r="AH17" s="19" t="n">
+      <c r="AH17" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$6:AL$9,A17),COUNTIFS(AK$6:AK$9,A17))</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="19" t="n">
+      <c r="AI17" s="13" t="n">
         <f aca="false">IF($D$3="S",COUNTIFS(AL$12:AL$13,A17),COUNTIFS(AK$12:AK$13,A17))</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="19"/>
+      <c r="AJ17" s="13"/>
       <c r="AK17" s="0" t="s">
         <v>43</v>
       </c>
@@ -2084,7 +2076,7 @@
       <c r="E19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,73 +2085,73 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!B2, 'Blanks (Northern Latitudes)'!B2)</f>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!B2, 'Blanks (Northern Latitudes)'!B2)</f>
         <v>6</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!D2, 'Blanks (Northern Latitudes)'!D2)</f>
-        <v>7</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!D2, 'Blanks (Northern Latitudes)'!D2)</f>
+        <v>5</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!F2, 'Blanks (Northern Latitudes)'!F2)</f>
-        <v>8</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!F2, 'Blanks (Northern Latitudes)'!F2)</f>
+        <v>4</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!H2, 'Blanks (Northern Latitudes)'!H2)</f>
-        <v>9</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!H2, 'Blanks (Northern Latitudes)'!H2)</f>
+        <v>3</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!J2, 'Blanks (Northern Latitudes)'!J2)</f>
-        <v>10</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!J2, 'Blanks (Northern Latitudes)'!J2)</f>
+        <v>2</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!L2, 'Blanks (Northern Latitudes)'!L2)</f>
-        <v>11</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!L2, 'Blanks (Northern Latitudes)'!L2)</f>
+        <v>1</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!N2, 'Blanks (Northern Latitudes)'!N2)</f>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!N2, 'Blanks (Northern Latitudes)'!N2)</f>
         <v>12</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!P2, 'Blanks (Northern Latitudes)'!P2)</f>
-        <v>1</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!P2, 'Blanks (Northern Latitudes)'!P2)</f>
+        <v>11</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!R2, 'Blanks (Northern Latitudes)'!R2)</f>
-        <v>2</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!R2, 'Blanks (Northern Latitudes)'!R2)</f>
+        <v>10</v>
       </c>
       <c r="S21" s="11"/>
       <c r="T21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!T2, 'Blanks (Northern Latitudes)'!T2)</f>
-        <v>3</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!T2, 'Blanks (Northern Latitudes)'!T2)</f>
+        <v>9</v>
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!V2, 'Blanks (Northern Latitudes)'!V2)</f>
-        <v>4</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!V2, 'Blanks (Northern Latitudes)'!V2)</f>
+        <v>8</v>
       </c>
       <c r="W21" s="11"/>
       <c r="X21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!X2, 'Blanks (Northern Latitudes)'!X2)</f>
-        <v>5</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!X2, 'Blanks (Northern Latitudes)'!X2)</f>
+        <v>7</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!Z2, 'Blanks (Northern Latitudes)'!Z2)</f>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!Z2, 'Blanks (Northern Latitudes)'!Z2)</f>
         <v>6</v>
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11" t="n">
-        <f aca="false">IF($D$19&lt;0, 'Blanks  (Southern Latitudes)'!AB2, 'Blanks (Northern Latitudes)'!AB2)</f>
-        <v>7</v>
+        <f aca="false">IF($D$19 = "S", 'Blanks  (Southern Latitudes)'!AB2, 'Blanks (Northern Latitudes)'!AB2)</f>
+        <v>5</v>
       </c>
       <c r="AC21" s="11"/>
       <c r="AD21" s="4" t="s">
@@ -2253,15 +2245,15 @@
         <f aca="false">AVERAGE(AD31,AD33,AD32,AD30,AD28,AD26)</f>
         <v>93.9166666666667</v>
       </c>
-      <c r="AH22" s="19" t="n">
+      <c r="AH22" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A22), COUNTIFS(AK$6:AK$9, A22))</f>
         <v>1</v>
       </c>
-      <c r="AI22" s="19" t="n">
+      <c r="AI22" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A22), COUNTIFS(AK$12:AK$13, A22))</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="19"/>
+      <c r="AJ22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="str">
@@ -2336,15 +2328,15 @@
         <f aca="false">SUM(B23:AC23)</f>
         <v>82</v>
       </c>
-      <c r="AH23" s="19" t="n">
+      <c r="AH23" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A23), COUNTIFS(AK$6:AK$9, A23))</f>
         <v>1</v>
       </c>
-      <c r="AI23" s="19" t="n">
+      <c r="AI23" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A23), COUNTIFS(AK$12:AK$13, A23))</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="19"/>
+      <c r="AJ23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="str">
@@ -2423,15 +2415,15 @@
         <f aca="false">SUM(B24:AC24)</f>
         <v>74</v>
       </c>
-      <c r="AH24" s="19" t="n">
+      <c r="AH24" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A24), COUNTIFS(AK$6:AK$9, A24))</f>
         <v>0</v>
       </c>
-      <c r="AI24" s="19" t="n">
+      <c r="AI24" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A24), COUNTIFS(AK$12:AK$13, A24))</f>
         <v>1</v>
       </c>
-      <c r="AJ24" s="19"/>
+      <c r="AJ24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="str">
@@ -2510,15 +2502,15 @@
         <f aca="false">SUM(B25:AC25)</f>
         <v>90</v>
       </c>
-      <c r="AH25" s="19" t="n">
+      <c r="AH25" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A25), COUNTIFS(AK$6:AK$9, A25))</f>
         <v>1</v>
       </c>
-      <c r="AI25" s="19" t="n">
+      <c r="AI25" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A25), COUNTIFS(AK$12:AK$13, A25))</f>
         <v>0</v>
       </c>
-      <c r="AJ25" s="19"/>
+      <c r="AJ25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="str">
@@ -2597,15 +2589,15 @@
         <f aca="false">SUM(B26:AC26)</f>
         <v>87.5</v>
       </c>
-      <c r="AH26" s="19" t="n">
+      <c r="AH26" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A26), COUNTIFS(AK$6:AK$9, A26))</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="19" t="n">
+      <c r="AI26" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A26), COUNTIFS(AK$12:AK$13, A26))</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="19"/>
+      <c r="AJ26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="str">
@@ -2688,15 +2680,15 @@
         <f aca="false">SUM(B27:AC27)</f>
         <v>89.5</v>
       </c>
-      <c r="AH27" s="19" t="n">
+      <c r="AH27" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A27), COUNTIFS(AK$6:AK$9, A27))</f>
         <v>1</v>
       </c>
-      <c r="AI27" s="19" t="n">
+      <c r="AI27" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A27), COUNTIFS(AK$12:AK$13, A27))</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="19"/>
+      <c r="AJ27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="str">
@@ -2779,15 +2771,15 @@
         <f aca="false">SUM(B28:AC28)</f>
         <v>91</v>
       </c>
-      <c r="AH28" s="19" t="n">
+      <c r="AH28" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A28), COUNTIFS(AK$6:AK$9, A28))</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="19" t="n">
+      <c r="AI28" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A28), COUNTIFS(AK$12:AK$13, A28))</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="19"/>
+      <c r="AJ28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="str">
@@ -2870,15 +2862,15 @@
         <f aca="false">SUM(B29:AC29)</f>
         <v>93</v>
       </c>
-      <c r="AH29" s="19" t="n">
+      <c r="AH29" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A29), COUNTIFS(AK$6:AK$9, A29))</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="19" t="n">
+      <c r="AI29" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A29), COUNTIFS(AK$12:AK$13, A29))</f>
         <v>1</v>
       </c>
-      <c r="AJ29" s="19"/>
+      <c r="AJ29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="str">
@@ -2961,15 +2953,15 @@
         <f aca="false">SUM(B30:AC30)</f>
         <v>95.5</v>
       </c>
-      <c r="AH30" s="19" t="n">
+      <c r="AH30" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A30), COUNTIFS(AK$6:AK$9, A30))</f>
         <v>0</v>
       </c>
-      <c r="AI30" s="19" t="n">
+      <c r="AI30" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A30), COUNTIFS(AK$12:AK$13, A30))</f>
         <v>0</v>
       </c>
-      <c r="AJ30" s="19"/>
+      <c r="AJ30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="str">
@@ -3052,15 +3044,15 @@
         <f aca="false">SUM(B31:AC31)</f>
         <v>97</v>
       </c>
-      <c r="AH31" s="19" t="n">
+      <c r="AH31" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A31), COUNTIFS(AK$6:AK$9, A31))</f>
         <v>0</v>
       </c>
-      <c r="AI31" s="19" t="n">
+      <c r="AI31" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A31), COUNTIFS(AK$12:AK$13, A31))</f>
         <v>0</v>
       </c>
-      <c r="AJ31" s="19"/>
+      <c r="AJ31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="str">
@@ -3143,15 +3135,15 @@
         <f aca="false">SUM(B32:AC32)</f>
         <v>97</v>
       </c>
-      <c r="AH32" s="19" t="n">
+      <c r="AH32" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A32), COUNTIFS(AK$6:AK$9, A32))</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="19" t="n">
+      <c r="AI32" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A32), COUNTIFS(AK$12:AK$13, A32))</f>
         <v>0</v>
       </c>
-      <c r="AJ32" s="19"/>
+      <c r="AJ32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="str">
@@ -3238,15 +3230,15 @@
         <f aca="false">SUM(B33:AC33)</f>
         <v>95.5</v>
       </c>
-      <c r="AH33" s="19" t="n">
+      <c r="AH33" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$6:AL$9, A33), COUNTIFS(AK$6:AK$9, A33))</f>
         <v>0</v>
       </c>
-      <c r="AI33" s="19" t="n">
+      <c r="AI33" s="13" t="n">
         <f aca="false">IF($D$19="S", COUNTIFS(AL$12:AL$13, A33), COUNTIFS(AK$12:AK$13, A33))</f>
         <v>0</v>
       </c>
-      <c r="AJ33" s="19"/>
+      <c r="AJ33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3345,10 +3337,10 @@
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3402,8 +3394,8 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="24" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="16" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="10.59"/>
   </cols>
@@ -3507,10 +3499,10 @@
       <c r="M3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="N3" s="25" t="n">
+      <c r="N3" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="O3" s="26" t="n">
+      <c r="O3" s="25" t="n">
         <v>9</v>
       </c>
       <c r="P3" s="2" t="n">
@@ -3580,10 +3572,10 @@
       <c r="M4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N4" s="25" t="n">
+      <c r="N4" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="O4" s="26" t="n">
+      <c r="O4" s="25" t="n">
         <v>9</v>
       </c>
       <c r="P4" s="2" t="n">
@@ -3653,10 +3645,10 @@
       <c r="M5" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N5" s="25" t="n">
+      <c r="N5" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="O5" s="26" t="n">
+      <c r="O5" s="25" t="n">
         <v>9</v>
       </c>
       <c r="P5" s="2" t="n">
@@ -3728,10 +3720,10 @@
       <c r="M6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N6" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" s="26" t="n">
+      <c r="N6" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P6" s="2" t="n">
@@ -3805,10 +3797,10 @@
       <c r="M7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N7" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="26" t="n">
+      <c r="N7" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P7" s="2" t="n">
@@ -3884,10 +3876,10 @@
       <c r="M8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" s="26" t="n">
+      <c r="N8" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P8" s="2" t="n">
@@ -3965,10 +3957,10 @@
       <c r="M9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" s="26" t="n">
+      <c r="N9" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P9" s="2" t="n">
@@ -4046,10 +4038,10 @@
       <c r="M10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N10" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" s="26" t="n">
+      <c r="N10" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P10" s="2" t="n">
@@ -4129,10 +4121,10 @@
       <c r="M11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" s="26" t="n">
+      <c r="N11" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P11" s="2" t="n">
@@ -4214,10 +4206,10 @@
       <c r="M12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N12" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" s="26" t="n">
+      <c r="N12" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P12" s="2" t="n">
@@ -4299,10 +4291,10 @@
       <c r="M13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N13" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" s="26" t="n">
+      <c r="N13" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P13" s="2" t="n">
@@ -4386,10 +4378,10 @@
       <c r="M14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N14" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" s="26" t="n">
+      <c r="N14" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P14" s="2" t="n">
@@ -4534,10 +4526,10 @@
       <c r="M18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N18" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" s="26" t="n">
+      <c r="N18" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P18" s="2" t="n">
@@ -4607,10 +4599,10 @@
       <c r="M19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N19" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" s="26" t="n">
+      <c r="N19" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P19" s="2" t="n">
@@ -4682,10 +4674,10 @@
       <c r="M20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" s="26" t="n">
+      <c r="N20" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P20" s="2" t="n">
@@ -4759,10 +4751,10 @@
       <c r="M21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" s="26" t="n">
+      <c r="N21" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P21" s="2" t="n">
@@ -4836,10 +4828,10 @@
       <c r="M22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N22" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" s="26" t="n">
+      <c r="N22" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P22" s="2" t="n">
@@ -4915,10 +4907,10 @@
       <c r="M23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" s="26" t="n">
+      <c r="N23" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P23" s="2" t="n">
@@ -4996,10 +4988,10 @@
       <c r="M24" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N24" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" s="26" t="n">
+      <c r="N24" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P24" s="2" t="n">
@@ -5077,10 +5069,10 @@
       <c r="M25" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N25" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O25" s="26" t="n">
+      <c r="N25" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P25" s="2" t="n">
@@ -5158,10 +5150,10 @@
       <c r="M26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O26" s="26" t="n">
+      <c r="N26" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P26" s="2" t="n">
@@ -5239,10 +5231,10 @@
       <c r="M27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N27" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O27" s="26" t="n">
+      <c r="N27" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P27" s="2" t="n">
@@ -5320,10 +5312,10 @@
       <c r="M28" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N28" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" s="26" t="n">
+      <c r="N28" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P28" s="2" t="n">
@@ -5403,10 +5395,10 @@
       <c r="M29" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N29" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" s="26" t="n">
+      <c r="N29" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P29" s="2" t="n">
@@ -5549,10 +5541,10 @@
       <c r="M33" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N33" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" s="26" t="n">
+      <c r="N33" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P33" s="2" t="n">
@@ -5624,10 +5616,10 @@
       <c r="M34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N34" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" s="26" t="n">
+      <c r="N34" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P34" s="2" t="n">
@@ -5701,10 +5693,10 @@
       <c r="M35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N35" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O35" s="26" t="n">
+      <c r="N35" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P35" s="2" t="n">
@@ -5780,10 +5772,10 @@
       <c r="M36" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N36" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O36" s="26" t="n">
+      <c r="N36" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P36" s="2" t="n">
@@ -5861,10 +5853,10 @@
       <c r="M37" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N37" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O37" s="26" t="n">
+      <c r="N37" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P37" s="2" t="n">
@@ -5942,10 +5934,10 @@
       <c r="M38" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O38" s="26" t="n">
+      <c r="N38" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P38" s="2" t="n">
@@ -6023,10 +6015,10 @@
       <c r="M39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N39" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O39" s="26" t="n">
+      <c r="N39" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O39" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P39" s="2" t="n">
@@ -6104,10 +6096,10 @@
       <c r="M40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N40" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O40" s="26" t="n">
+      <c r="N40" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O40" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P40" s="2" t="n">
@@ -6185,10 +6177,10 @@
       <c r="M41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O41" s="26" t="n">
+      <c r="N41" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O41" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P41" s="2" t="n">
@@ -6268,10 +6260,10 @@
       <c r="M42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N42" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O42" s="26" t="n">
+      <c r="N42" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O42" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P42" s="2" t="n">
@@ -6353,10 +6345,10 @@
       <c r="M43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N43" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O43" s="26" t="n">
+      <c r="N43" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P43" s="2" t="n">
@@ -6440,10 +6432,10 @@
       <c r="M44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N44" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O44" s="26" t="n">
+      <c r="N44" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P44" s="2" t="n">
@@ -6556,24 +6548,24 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="24" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="16" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="6.84"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="32" style="0" width="10.59"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="AD1" s="27" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="AD1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6673,10 +6665,10 @@
       <c r="M3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N3" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" s="26" t="n">
+      <c r="N3" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P3" s="2" t="n">
@@ -6754,10 +6746,10 @@
       <c r="M4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" s="26" t="n">
+      <c r="N4" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P4" s="2" t="n">
@@ -6835,10 +6827,10 @@
       <c r="M5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N5" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" s="26" t="n">
+      <c r="N5" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P5" s="2" t="n">
@@ -6916,10 +6908,10 @@
       <c r="M6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N6" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" s="26" t="n">
+      <c r="N6" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P6" s="2" t="n">
@@ -6997,10 +6989,10 @@
       <c r="M7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N7" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="26" t="n">
+      <c r="N7" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P7" s="2" t="n">
@@ -7078,10 +7070,10 @@
       <c r="M8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" s="26" t="n">
+      <c r="N8" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P8" s="2" t="n">
@@ -7159,10 +7151,10 @@
       <c r="M9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" s="26" t="n">
+      <c r="N9" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P9" s="2" t="n">
@@ -7240,10 +7232,10 @@
       <c r="M10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N10" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" s="26" t="n">
+      <c r="N10" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P10" s="2" t="n">
@@ -7321,10 +7313,10 @@
       <c r="M11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" s="26" t="n">
+      <c r="N11" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P11" s="2" t="n">
@@ -7402,10 +7394,10 @@
       <c r="M12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N12" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" s="26" t="n">
+      <c r="N12" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P12" s="2" t="n">
@@ -7483,10 +7475,10 @@
       <c r="M13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N13" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" s="26" t="n">
+      <c r="N13" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P13" s="2" t="n">
@@ -7564,10 +7556,10 @@
       <c r="M14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N14" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" s="26" t="n">
+      <c r="N14" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P14" s="2" t="n">
@@ -7609,12 +7601,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+    <row r="16" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -7712,10 +7704,10 @@
       <c r="M18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N18" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" s="26" t="n">
+      <c r="N18" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P18" s="2" t="n">
@@ -7793,10 +7785,10 @@
       <c r="M19" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N19" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" s="26" t="n">
+      <c r="N19" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P19" s="2" t="n">
@@ -7874,10 +7866,10 @@
       <c r="M20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" s="26" t="n">
+      <c r="N20" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P20" s="2" t="n">
@@ -7955,10 +7947,10 @@
       <c r="M21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" s="26" t="n">
+      <c r="N21" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P21" s="2" t="n">
@@ -8036,10 +8028,10 @@
       <c r="M22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N22" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" s="26" t="n">
+      <c r="N22" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P22" s="2" t="n">
@@ -8117,10 +8109,10 @@
       <c r="M23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O23" s="26" t="n">
+      <c r="N23" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P23" s="2" t="n">
@@ -8198,10 +8190,10 @@
       <c r="M24" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N24" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" s="26" t="n">
+      <c r="N24" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P24" s="2" t="n">
@@ -8279,10 +8271,10 @@
       <c r="M25" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N25" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" s="26" t="n">
+      <c r="N25" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P25" s="2" t="n">
@@ -8360,10 +8352,10 @@
       <c r="M26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" s="26" t="n">
+      <c r="N26" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P26" s="2" t="n">
@@ -8441,10 +8433,10 @@
       <c r="M27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N27" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O27" s="26" t="n">
+      <c r="N27" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P27" s="2" t="n">
@@ -8522,10 +8514,10 @@
       <c r="M28" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N28" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O28" s="26" t="n">
+      <c r="N28" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P28" s="2" t="n">
@@ -8603,10 +8595,10 @@
       <c r="M29" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N29" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O29" s="26" t="n">
+      <c r="N29" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P29" s="2" t="n">
@@ -8648,12 +8640,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
+    <row r="31" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="29"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -8751,10 +8743,10 @@
       <c r="M33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N33" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" s="26" t="n">
+      <c r="N33" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P33" s="2" t="n">
@@ -8832,10 +8824,10 @@
       <c r="M34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N34" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" s="26" t="n">
+      <c r="N34" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P34" s="2" t="n">
@@ -8913,10 +8905,10 @@
       <c r="M35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N35" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O35" s="26" t="n">
+      <c r="N35" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P35" s="2" t="n">
@@ -8994,10 +8986,10 @@
       <c r="M36" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N36" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O36" s="26" t="n">
+      <c r="N36" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O36" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P36" s="2" t="n">
@@ -9075,10 +9067,10 @@
       <c r="M37" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N37" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O37" s="26" t="n">
+      <c r="N37" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P37" s="2" t="n">
@@ -9156,10 +9148,10 @@
       <c r="M38" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O38" s="26" t="n">
+      <c r="N38" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P38" s="2" t="n">
@@ -9237,10 +9229,10 @@
       <c r="M39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N39" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O39" s="26" t="n">
+      <c r="N39" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P39" s="2" t="n">
@@ -9318,10 +9310,10 @@
       <c r="M40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N40" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O40" s="26" t="n">
+      <c r="N40" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P40" s="2" t="n">
@@ -9399,10 +9391,10 @@
       <c r="M41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O41" s="26" t="n">
+      <c r="N41" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P41" s="2" t="n">
@@ -9480,10 +9472,10 @@
       <c r="M42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N42" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O42" s="26" t="n">
+      <c r="N42" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O42" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P42" s="2" t="n">
@@ -9564,10 +9556,10 @@
       <c r="M43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N43" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O43" s="26" t="n">
+      <c r="N43" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P43" s="2" t="n">
@@ -9648,10 +9640,10 @@
       <c r="M44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N44" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O44" s="26" t="n">
+      <c r="N44" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P44" s="2" t="n">
@@ -9696,12 +9688,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27" t="s">
+    <row r="46" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N46" s="28"/>
-      <c r="O46" s="29"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="28"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -9797,10 +9789,10 @@
       <c r="M48" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N48" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O48" s="26" t="n">
+      <c r="N48" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P48" s="2" t="n">
@@ -9876,10 +9868,10 @@
       <c r="M49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N49" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O49" s="26" t="n">
+      <c r="N49" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O49" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P49" s="2" t="n">
@@ -9957,10 +9949,10 @@
       <c r="M50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N50" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O50" s="26" t="n">
+      <c r="N50" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O50" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P50" s="2" t="n">
@@ -10038,10 +10030,10 @@
       <c r="M51" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N51" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O51" s="26" t="n">
+      <c r="N51" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O51" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P51" s="2" t="n">
@@ -10119,10 +10111,10 @@
       <c r="M52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N52" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O52" s="26" t="n">
+      <c r="N52" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P52" s="2" t="n">
@@ -10200,10 +10192,10 @@
       <c r="M53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N53" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O53" s="26" t="n">
+      <c r="N53" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P53" s="2" t="n">
@@ -10281,10 +10273,10 @@
       <c r="M54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N54" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O54" s="26" t="n">
+      <c r="N54" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O54" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P54" s="2" t="n">
@@ -10362,10 +10354,10 @@
       <c r="M55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N55" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O55" s="26" t="n">
+      <c r="N55" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O55" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P55" s="2" t="n">
@@ -10443,10 +10435,10 @@
       <c r="M56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N56" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O56" s="26" t="n">
+      <c r="N56" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O56" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P56" s="2" t="n">
@@ -10524,10 +10516,10 @@
       <c r="M57" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N57" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O57" s="26" t="n">
+      <c r="N57" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P57" s="2" t="n">
@@ -10605,10 +10597,10 @@
       <c r="M58" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N58" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O58" s="26" t="n">
+      <c r="N58" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P58" s="2" t="n">
@@ -10686,10 +10678,10 @@
       <c r="M59" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N59" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O59" s="26" t="n">
+      <c r="N59" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O59" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P59" s="2" t="n">
@@ -10731,12 +10723,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="27" t="s">
+    <row r="61" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="N61" s="28"/>
-      <c r="O61" s="29"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -10832,10 +10824,10 @@
       <c r="M63" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N63" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O63" s="26" t="n">
+      <c r="N63" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O63" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P63" s="2" t="n">
@@ -10909,10 +10901,10 @@
       <c r="M64" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N64" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O64" s="26" t="n">
+      <c r="N64" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O64" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P64" s="2" t="n">
@@ -10986,10 +10978,10 @@
       <c r="M65" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N65" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O65" s="26" t="n">
+      <c r="N65" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O65" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P65" s="2" t="n">
@@ -11062,10 +11054,10 @@
       <c r="M66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N66" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O66" s="26" t="n">
+      <c r="N66" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O66" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P66" s="2" t="n">
@@ -11140,10 +11132,10 @@
       <c r="M67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N67" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O67" s="26" t="n">
+      <c r="N67" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O67" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P67" s="2" t="n">
@@ -11221,10 +11213,10 @@
       <c r="M68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N68" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O68" s="26" t="n">
+      <c r="N68" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O68" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P68" s="2" t="n">
@@ -11302,10 +11294,10 @@
       <c r="M69" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N69" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O69" s="26" t="n">
+      <c r="N69" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O69" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P69" s="2" t="n">
@@ -11383,10 +11375,10 @@
       <c r="M70" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N70" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O70" s="26" t="n">
+      <c r="N70" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O70" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P70" s="2" t="n">
@@ -11464,10 +11456,10 @@
       <c r="M71" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N71" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O71" s="26" t="n">
+      <c r="N71" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O71" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P71" s="2" t="n">
@@ -11545,10 +11537,10 @@
       <c r="M72" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N72" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O72" s="26" t="n">
+      <c r="N72" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O72" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P72" s="2" t="n">
@@ -11628,10 +11620,10 @@
       <c r="M73" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N73" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O73" s="26" t="n">
+      <c r="N73" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O73" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P73" s="2" t="n">
@@ -11713,10 +11705,10 @@
       <c r="M74" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N74" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O74" s="26" t="n">
+      <c r="N74" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O74" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P74" s="2" t="n">
@@ -11760,12 +11752,12 @@
         <v/>
       </c>
     </row>
-    <row r="76" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="27" t="s">
+    <row r="76" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="N76" s="28"/>
-      <c r="O76" s="29"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="28"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -11859,10 +11851,10 @@
       <c r="M78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N78" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O78" s="26" t="n">
+      <c r="N78" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O78" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P78" s="2" t="n">
@@ -11932,10 +11924,10 @@
       <c r="M79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N79" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O79" s="26" t="n">
+      <c r="N79" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O79" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P79" s="2" t="n">
@@ -12004,10 +11996,10 @@
       <c r="M80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N80" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O80" s="26" t="n">
+      <c r="N80" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O80" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P80" s="2" t="n">
@@ -12077,10 +12069,10 @@
       <c r="M81" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N81" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O81" s="26" t="n">
+      <c r="N81" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O81" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P81" s="2" t="n">
@@ -12153,10 +12145,10 @@
       <c r="M82" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N82" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O82" s="26" t="n">
+      <c r="N82" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O82" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P82" s="2" t="n">
@@ -12232,10 +12224,10 @@
       <c r="M83" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N83" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O83" s="26" t="n">
+      <c r="N83" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O83" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P83" s="2" t="n">
@@ -12313,10 +12305,10 @@
       <c r="M84" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N84" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O84" s="26" t="n">
+      <c r="N84" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O84" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P84" s="2" t="n">
@@ -12394,10 +12386,10 @@
       <c r="M85" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N85" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O85" s="26" t="n">
+      <c r="N85" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O85" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P85" s="2" t="n">
@@ -12477,10 +12469,10 @@
       <c r="M86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N86" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O86" s="26" t="n">
+      <c r="N86" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O86" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P86" s="2" t="n">
@@ -12562,10 +12554,10 @@
       <c r="M87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N87" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O87" s="26" t="n">
+      <c r="N87" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O87" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P87" s="2" t="n">
@@ -12647,10 +12639,10 @@
       <c r="M88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N88" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O88" s="26" t="n">
+      <c r="N88" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" s="25" t="n">
         <v>6</v>
       </c>
       <c r="P88" s="2" t="n">
@@ -12732,10 +12724,10 @@
       <c r="M89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N89" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O89" s="26" t="n">
+      <c r="N89" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" s="25" t="n">
         <v>6</v>
       </c>
       <c r="P89" s="2" t="n">
@@ -12779,12 +12771,12 @@
         <v/>
       </c>
     </row>
-    <row r="91" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="27" t="s">
+    <row r="91" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N91" s="28"/>
-      <c r="O91" s="29"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="28"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
@@ -12878,10 +12870,10 @@
       <c r="M93" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N93" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O93" s="26" t="n">
+      <c r="N93" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O93" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P93" s="2" t="n">
@@ -12953,10 +12945,10 @@
       <c r="M94" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N94" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O94" s="26" t="n">
+      <c r="N94" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O94" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P94" s="2" t="n">
@@ -13030,10 +13022,10 @@
       <c r="M95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N95" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O95" s="26" t="n">
+      <c r="N95" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O95" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P95" s="2" t="n">
@@ -13106,10 +13098,10 @@
       <c r="M96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N96" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O96" s="26" t="n">
+      <c r="N96" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O96" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P96" s="2" t="n">
@@ -13184,10 +13176,10 @@
       <c r="M97" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N97" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O97" s="26" t="n">
+      <c r="N97" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O97" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P97" s="2" t="n">
@@ -13265,10 +13257,10 @@
       <c r="M98" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N98" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O98" s="26" t="n">
+      <c r="N98" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O98" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P98" s="2" t="n">
@@ -13346,10 +13338,10 @@
       <c r="M99" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N99" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O99" s="26" t="n">
+      <c r="N99" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O99" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P99" s="2" t="n">
@@ -13427,10 +13419,10 @@
       <c r="M100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N100" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O100" s="26" t="n">
+      <c r="N100" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O100" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P100" s="2" t="n">
@@ -13508,10 +13500,10 @@
       <c r="M101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N101" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O101" s="26" t="n">
+      <c r="N101" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O101" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P101" s="2" t="n">
@@ -13591,10 +13583,10 @@
       <c r="M102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N102" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O102" s="26" t="n">
+      <c r="N102" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O102" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P102" s="2" t="n">
@@ -13676,10 +13668,10 @@
       <c r="M103" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N103" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O103" s="26" t="n">
+      <c r="N103" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O103" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P103" s="2" t="n">
@@ -13761,10 +13753,10 @@
       <c r="M104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N104" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O104" s="26" t="n">
+      <c r="N104" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O104" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P104" s="2" t="n">
@@ -13808,12 +13800,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="27" t="s">
+    <row r="106" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N106" s="28"/>
-      <c r="O106" s="29"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="28"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
@@ -13907,10 +13899,10 @@
       <c r="M108" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N108" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O108" s="26" t="n">
+      <c r="N108" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O108" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P108" s="2" t="n">
@@ -13981,10 +13973,10 @@
       <c r="M109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N109" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O109" s="26" t="n">
+      <c r="N109" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O109" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P109" s="2" t="n">
@@ -14058,10 +14050,10 @@
       <c r="M110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N110" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O110" s="26" t="n">
+      <c r="N110" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O110" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P110" s="2" t="n">
@@ -14137,10 +14129,10 @@
       <c r="M111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N111" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O111" s="26" t="n">
+      <c r="N111" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O111" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P111" s="2" t="n">
@@ -14218,10 +14210,10 @@
       <c r="M112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N112" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O112" s="26" t="n">
+      <c r="N112" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O112" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P112" s="2" t="n">
@@ -14299,10 +14291,10 @@
       <c r="M113" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N113" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O113" s="26" t="n">
+      <c r="N113" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O113" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P113" s="2" t="n">
@@ -14380,10 +14372,10 @@
       <c r="M114" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N114" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O114" s="26" t="n">
+      <c r="N114" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O114" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P114" s="2" t="n">
@@ -14461,10 +14453,10 @@
       <c r="M115" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N115" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O115" s="26" t="n">
+      <c r="N115" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O115" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P115" s="2" t="n">
@@ -14542,10 +14534,10 @@
       <c r="M116" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N116" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O116" s="26" t="n">
+      <c r="N116" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O116" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P116" s="2" t="n">
@@ -14625,10 +14617,10 @@
       <c r="M117" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N117" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O117" s="26" t="n">
+      <c r="N117" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O117" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P117" s="2" t="n">
@@ -14710,10 +14702,10 @@
       <c r="M118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N118" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O118" s="26" t="n">
+      <c r="N118" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O118" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P118" s="2" t="n">
@@ -14797,10 +14789,10 @@
       <c r="M119" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N119" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O119" s="26" t="n">
+      <c r="N119" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O119" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P119" s="2" t="n">
@@ -14846,12 +14838,12 @@
         <v/>
       </c>
     </row>
-    <row r="121" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="27" t="s">
+    <row r="121" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N121" s="28"/>
-      <c r="O121" s="29"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="28"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
@@ -14945,10 +14937,10 @@
       <c r="M123" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N123" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O123" s="26" t="n">
+      <c r="N123" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O123" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P123" s="2" t="n">
@@ -15017,10 +15009,10 @@
       <c r="M124" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N124" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O124" s="26" t="n">
+      <c r="N124" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O124" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P124" s="2" t="n">
@@ -15092,10 +15084,10 @@
       <c r="M125" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N125" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O125" s="26" t="n">
+      <c r="N125" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O125" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P125" s="2" t="n">
@@ -15169,10 +15161,10 @@
       <c r="M126" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N126" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O126" s="26" t="n">
+      <c r="N126" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O126" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P126" s="2" t="n">
@@ -15246,10 +15238,10 @@
       <c r="M127" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N127" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O127" s="26" t="n">
+      <c r="N127" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O127" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P127" s="2" t="n">
@@ -15325,10 +15317,10 @@
       <c r="M128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N128" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O128" s="26" t="n">
+      <c r="N128" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O128" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P128" s="2" t="n">
@@ -15406,10 +15398,10 @@
       <c r="M129" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N129" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O129" s="26" t="n">
+      <c r="N129" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O129" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P129" s="2" t="n">
@@ -15487,10 +15479,10 @@
       <c r="M130" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N130" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O130" s="26" t="n">
+      <c r="N130" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O130" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P130" s="2" t="n">
@@ -15568,10 +15560,10 @@
       <c r="M131" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N131" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O131" s="26" t="n">
+      <c r="N131" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O131" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P131" s="2" t="n">
@@ -15649,10 +15641,10 @@
       <c r="M132" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N132" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O132" s="26" t="n">
+      <c r="N132" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O132" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P132" s="2" t="n">
@@ -15730,10 +15722,10 @@
       <c r="M133" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N133" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O133" s="26" t="n">
+      <c r="N133" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O133" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P133" s="2" t="n">
@@ -15813,10 +15805,10 @@
       <c r="M134" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N134" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O134" s="26" t="n">
+      <c r="N134" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O134" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P134" s="2" t="n">
@@ -15860,12 +15852,12 @@
         <v/>
       </c>
     </row>
-    <row r="136" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="27" t="s">
+    <row r="136" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N136" s="28"/>
-      <c r="O136" s="29"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="28"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
@@ -15959,10 +15951,10 @@
       <c r="M138" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="N138" s="25" t="n">
+      <c r="N138" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="O138" s="26" t="n">
+      <c r="O138" s="25" t="n">
         <v>9</v>
       </c>
       <c r="P138" s="2" t="n">
@@ -16031,10 +16023,10 @@
       <c r="M139" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N139" s="25" t="n">
+      <c r="N139" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="O139" s="26" t="n">
+      <c r="O139" s="25" t="n">
         <v>9</v>
       </c>
       <c r="P139" s="2" t="n">
@@ -16104,10 +16096,10 @@
       <c r="M140" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N140" s="25" t="n">
+      <c r="N140" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="O140" s="26" t="n">
+      <c r="O140" s="25" t="n">
         <v>9</v>
       </c>
       <c r="P140" s="2" t="n">
@@ -16179,10 +16171,10 @@
       <c r="M141" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N141" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O141" s="26" t="n">
+      <c r="N141" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O141" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P141" s="2" t="n">
@@ -16256,10 +16248,10 @@
       <c r="M142" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N142" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O142" s="26" t="n">
+      <c r="N142" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O142" s="25" t="n">
         <v>8</v>
       </c>
       <c r="P142" s="2" t="n">
@@ -16335,10 +16327,10 @@
       <c r="M143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N143" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O143" s="26" t="n">
+      <c r="N143" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O143" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P143" s="2" t="n">
@@ -16416,10 +16408,10 @@
       <c r="M144" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N144" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O144" s="26" t="n">
+      <c r="N144" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O144" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P144" s="2" t="n">
@@ -16497,10 +16489,10 @@
       <c r="M145" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N145" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O145" s="26" t="n">
+      <c r="N145" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O145" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P145" s="2" t="n">
@@ -16580,10 +16572,10 @@
       <c r="M146" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N146" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O146" s="26" t="n">
+      <c r="N146" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O146" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P146" s="2" t="n">
@@ -16665,10 +16657,10 @@
       <c r="M147" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N147" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O147" s="26" t="n">
+      <c r="N147" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O147" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P147" s="2" t="n">
@@ -16750,10 +16742,10 @@
       <c r="M148" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N148" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O148" s="26" t="n">
+      <c r="N148" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O148" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P148" s="2" t="n">
@@ -16837,10 +16829,10 @@
       <c r="M149" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N149" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O149" s="26" t="n">
+      <c r="N149" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O149" s="25" t="n">
         <v>7</v>
       </c>
       <c r="P149" s="2" t="n">
@@ -16904,8 +16896,8 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
-      <c r="N164" s="25"/>
-      <c r="O164" s="26"/>
+      <c r="N164" s="24"/>
+      <c r="O164" s="25"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
@@ -16935,8 +16927,8 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="25"/>
-      <c r="O165" s="26"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="25"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
@@ -16967,8 +16959,8 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="25"/>
-      <c r="O166" s="26"/>
+      <c r="N166" s="24"/>
+      <c r="O166" s="25"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
@@ -16999,8 +16991,8 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
-      <c r="N167" s="25"/>
-      <c r="O167" s="26"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="25"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
@@ -17031,8 +17023,8 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
-      <c r="N168" s="25"/>
-      <c r="O168" s="26"/>
+      <c r="N168" s="24"/>
+      <c r="O168" s="25"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
@@ -17063,8 +17055,8 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
-      <c r="N169" s="25"/>
-      <c r="O169" s="26"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="25"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
@@ -17095,8 +17087,8 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="25"/>
-      <c r="O170" s="26"/>
+      <c r="N170" s="24"/>
+      <c r="O170" s="25"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
@@ -17127,8 +17119,8 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="N171" s="25"/>
-      <c r="O171" s="26"/>
+      <c r="N171" s="24"/>
+      <c r="O171" s="25"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
@@ -17159,8 +17151,8 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
-      <c r="N172" s="25"/>
-      <c r="O172" s="26"/>
+      <c r="N172" s="24"/>
+      <c r="O172" s="25"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
@@ -17191,8 +17183,8 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="N173" s="25"/>
-      <c r="O173" s="26"/>
+      <c r="N173" s="24"/>
+      <c r="O173" s="25"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
@@ -17223,8 +17215,8 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="25"/>
-      <c r="O174" s="26"/>
+      <c r="N174" s="24"/>
+      <c r="O174" s="25"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>

--- a/Pathfinder-Analyser.xlsx
+++ b/Pathfinder-Analyser.xlsx
@@ -382,7 +382,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +456,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -686,7 +690,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="2" sqref="AE6:AF6 AE22:AF22 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -796,7 +800,7 @@
   <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="N16" activeCellId="2" sqref="AE6:AF6 AE22:AF22 N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,11 +1019,11 @@
         <f aca="false">SUM(B6:AC6)</f>
         <v>83</v>
       </c>
-      <c r="AE6" s="18" t="n">
+      <c r="AE6" s="19" t="n">
         <f aca="false">AVERAGE(AD8,AD6,AD7,AD9,AD11,AD13)</f>
         <v>85.25</v>
       </c>
-      <c r="AF6" s="18" t="n">
+      <c r="AF6" s="19" t="n">
         <f aca="false">AVERAGE(AD15,AD17,AD16,AD14,AD12,AD10)</f>
         <v>92.3333333333333</v>
       </c>
@@ -1926,7 +1930,7 @@
       <c r="R16" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="S16" s="19" t="n">
+      <c r="S16" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T16" s="15" t="n">
@@ -2076,7 +2080,7 @@
       <c r="E19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="str">
         <f aca="false">IF(D19="S", "JUN", "DEC")</f>
         <v>JUN</v>
@@ -2237,11 +2241,11 @@
         <f aca="false">SUM(B22:AC22)</f>
         <v>74.5</v>
       </c>
-      <c r="AE22" s="18" t="n">
+      <c r="AE22" s="19" t="n">
         <f aca="false">AVERAGE(AD24,AD22,AD23,AD25,AD27,AD29)</f>
         <v>83.8333333333333</v>
       </c>
-      <c r="AF22" s="18" t="n">
+      <c r="AF22" s="19" t="n">
         <f aca="false">AVERAGE(AD31,AD33,AD32,AD30,AD28,AD26)</f>
         <v>93.9166666666667</v>
       </c>
@@ -3287,7 +3291,7 @@
       <formula>$AI22=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:AC33 B6:AC15 B17:AC17 B16:R16 T16:AC16">
+  <conditionalFormatting sqref="B22:AC33 G6:AC15 G17:AC17 G16:R16 T16:AC16 B6:F17">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(NOT(ISBLANK(B6)), B6=0)</formula>
     </cfRule>
@@ -3328,7 +3332,7 @@
   <dimension ref="F9:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="2" sqref="AE6:AF6 AE22:AF22 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3337,10 +3341,10 @@
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3362,7 +3366,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="AE6:AF6 AE22:AF22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3388,14 +3392,14 @@
   <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="2" sqref="AE6:AF6 AE22:AF22 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="24" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="16" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="10.59"/>
   </cols>
@@ -3499,10 +3503,10 @@
       <c r="M3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="N3" s="24" t="n">
+      <c r="N3" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="O3" s="25" t="n">
+      <c r="O3" s="26" t="n">
         <v>9</v>
       </c>
       <c r="P3" s="2" t="n">
@@ -3572,10 +3576,10 @@
       <c r="M4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N4" s="24" t="n">
+      <c r="N4" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="O4" s="25" t="n">
+      <c r="O4" s="26" t="n">
         <v>9</v>
       </c>
       <c r="P4" s="2" t="n">
@@ -3645,10 +3649,10 @@
       <c r="M5" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N5" s="24" t="n">
+      <c r="N5" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="O5" s="25" t="n">
+      <c r="O5" s="26" t="n">
         <v>9</v>
       </c>
       <c r="P5" s="2" t="n">
@@ -3720,10 +3724,10 @@
       <c r="M6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N6" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" s="25" t="n">
+      <c r="N6" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P6" s="2" t="n">
@@ -3797,10 +3801,10 @@
       <c r="M7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N7" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="25" t="n">
+      <c r="N7" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P7" s="2" t="n">
@@ -3876,10 +3880,10 @@
       <c r="M8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" s="25" t="n">
+      <c r="N8" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P8" s="2" t="n">
@@ -3957,10 +3961,10 @@
       <c r="M9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" s="25" t="n">
+      <c r="N9" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P9" s="2" t="n">
@@ -4038,10 +4042,10 @@
       <c r="M10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N10" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" s="25" t="n">
+      <c r="N10" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P10" s="2" t="n">
@@ -4121,10 +4125,10 @@
       <c r="M11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" s="25" t="n">
+      <c r="N11" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P11" s="2" t="n">
@@ -4206,10 +4210,10 @@
       <c r="M12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N12" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" s="25" t="n">
+      <c r="N12" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P12" s="2" t="n">
@@ -4291,10 +4295,10 @@
       <c r="M13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N13" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" s="25" t="n">
+      <c r="N13" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P13" s="2" t="n">
@@ -4378,10 +4382,10 @@
       <c r="M14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N14" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" s="25" t="n">
+      <c r="N14" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P14" s="2" t="n">
@@ -4526,10 +4530,10 @@
       <c r="M18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N18" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" s="25" t="n">
+      <c r="N18" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P18" s="2" t="n">
@@ -4599,10 +4603,10 @@
       <c r="M19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N19" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" s="25" t="n">
+      <c r="N19" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P19" s="2" t="n">
@@ -4674,10 +4678,10 @@
       <c r="M20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" s="25" t="n">
+      <c r="N20" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P20" s="2" t="n">
@@ -4751,10 +4755,10 @@
       <c r="M21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" s="25" t="n">
+      <c r="N21" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P21" s="2" t="n">
@@ -4828,10 +4832,10 @@
       <c r="M22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N22" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" s="25" t="n">
+      <c r="N22" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P22" s="2" t="n">
@@ -4907,10 +4911,10 @@
       <c r="M23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" s="25" t="n">
+      <c r="N23" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P23" s="2" t="n">
@@ -4988,10 +4992,10 @@
       <c r="M24" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N24" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" s="25" t="n">
+      <c r="N24" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P24" s="2" t="n">
@@ -5069,10 +5073,10 @@
       <c r="M25" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N25" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O25" s="25" t="n">
+      <c r="N25" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P25" s="2" t="n">
@@ -5150,10 +5154,10 @@
       <c r="M26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O26" s="25" t="n">
+      <c r="N26" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P26" s="2" t="n">
@@ -5231,10 +5235,10 @@
       <c r="M27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N27" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O27" s="25" t="n">
+      <c r="N27" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P27" s="2" t="n">
@@ -5312,10 +5316,10 @@
       <c r="M28" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N28" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" s="25" t="n">
+      <c r="N28" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P28" s="2" t="n">
@@ -5395,10 +5399,10 @@
       <c r="M29" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N29" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" s="25" t="n">
+      <c r="N29" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P29" s="2" t="n">
@@ -5541,10 +5545,10 @@
       <c r="M33" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N33" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" s="25" t="n">
+      <c r="N33" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P33" s="2" t="n">
@@ -5616,10 +5620,10 @@
       <c r="M34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N34" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" s="25" t="n">
+      <c r="N34" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P34" s="2" t="n">
@@ -5693,10 +5697,10 @@
       <c r="M35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N35" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O35" s="25" t="n">
+      <c r="N35" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P35" s="2" t="n">
@@ -5772,10 +5776,10 @@
       <c r="M36" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N36" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O36" s="25" t="n">
+      <c r="N36" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P36" s="2" t="n">
@@ -5853,10 +5857,10 @@
       <c r="M37" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N37" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O37" s="25" t="n">
+      <c r="N37" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P37" s="2" t="n">
@@ -5934,10 +5938,10 @@
       <c r="M38" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O38" s="25" t="n">
+      <c r="N38" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P38" s="2" t="n">
@@ -6015,10 +6019,10 @@
       <c r="M39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N39" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O39" s="25" t="n">
+      <c r="N39" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O39" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P39" s="2" t="n">
@@ -6096,10 +6100,10 @@
       <c r="M40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N40" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O40" s="25" t="n">
+      <c r="N40" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O40" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P40" s="2" t="n">
@@ -6177,10 +6181,10 @@
       <c r="M41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O41" s="25" t="n">
+      <c r="N41" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O41" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P41" s="2" t="n">
@@ -6260,10 +6264,10 @@
       <c r="M42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N42" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O42" s="25" t="n">
+      <c r="N42" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O42" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P42" s="2" t="n">
@@ -6345,10 +6349,10 @@
       <c r="M43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N43" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O43" s="25" t="n">
+      <c r="N43" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P43" s="2" t="n">
@@ -6432,10 +6436,10 @@
       <c r="M44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N44" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O44" s="25" t="n">
+      <c r="N44" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P44" s="2" t="n">
@@ -6542,30 +6546,30 @@
   <dimension ref="A1:AE174"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="2" sqref="AE6:AF6 AE22:AF22 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="24" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="16" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="6.84"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="32" style="0" width="10.59"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="AD1" s="26" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="AD1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6665,10 +6669,10 @@
       <c r="M3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N3" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" s="25" t="n">
+      <c r="N3" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P3" s="2" t="n">
@@ -6746,10 +6750,10 @@
       <c r="M4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" s="25" t="n">
+      <c r="N4" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P4" s="2" t="n">
@@ -6827,10 +6831,10 @@
       <c r="M5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N5" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" s="25" t="n">
+      <c r="N5" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P5" s="2" t="n">
@@ -6908,10 +6912,10 @@
       <c r="M6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N6" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" s="25" t="n">
+      <c r="N6" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P6" s="2" t="n">
@@ -6989,10 +6993,10 @@
       <c r="M7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N7" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="25" t="n">
+      <c r="N7" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P7" s="2" t="n">
@@ -7070,10 +7074,10 @@
       <c r="M8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" s="25" t="n">
+      <c r="N8" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P8" s="2" t="n">
@@ -7151,10 +7155,10 @@
       <c r="M9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" s="25" t="n">
+      <c r="N9" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P9" s="2" t="n">
@@ -7232,10 +7236,10 @@
       <c r="M10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N10" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" s="25" t="n">
+      <c r="N10" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P10" s="2" t="n">
@@ -7313,10 +7317,10 @@
       <c r="M11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" s="25" t="n">
+      <c r="N11" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P11" s="2" t="n">
@@ -7394,10 +7398,10 @@
       <c r="M12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N12" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" s="25" t="n">
+      <c r="N12" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P12" s="2" t="n">
@@ -7475,10 +7479,10 @@
       <c r="M13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N13" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" s="25" t="n">
+      <c r="N13" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P13" s="2" t="n">
@@ -7556,10 +7560,10 @@
       <c r="M14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N14" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" s="25" t="n">
+      <c r="N14" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P14" s="2" t="n">
@@ -7601,12 +7605,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+    <row r="16" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -7704,10 +7708,10 @@
       <c r="M18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N18" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" s="25" t="n">
+      <c r="N18" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P18" s="2" t="n">
@@ -7785,10 +7789,10 @@
       <c r="M19" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N19" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" s="25" t="n">
+      <c r="N19" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P19" s="2" t="n">
@@ -7866,10 +7870,10 @@
       <c r="M20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" s="25" t="n">
+      <c r="N20" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P20" s="2" t="n">
@@ -7947,10 +7951,10 @@
       <c r="M21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" s="25" t="n">
+      <c r="N21" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P21" s="2" t="n">
@@ -8028,10 +8032,10 @@
       <c r="M22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N22" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" s="25" t="n">
+      <c r="N22" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P22" s="2" t="n">
@@ -8109,10 +8113,10 @@
       <c r="M23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O23" s="25" t="n">
+      <c r="N23" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P23" s="2" t="n">
@@ -8190,10 +8194,10 @@
       <c r="M24" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N24" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" s="25" t="n">
+      <c r="N24" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P24" s="2" t="n">
@@ -8271,10 +8275,10 @@
       <c r="M25" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N25" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" s="25" t="n">
+      <c r="N25" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P25" s="2" t="n">
@@ -8352,10 +8356,10 @@
       <c r="M26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" s="25" t="n">
+      <c r="N26" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P26" s="2" t="n">
@@ -8433,10 +8437,10 @@
       <c r="M27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N27" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O27" s="25" t="n">
+      <c r="N27" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P27" s="2" t="n">
@@ -8514,10 +8518,10 @@
       <c r="M28" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N28" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O28" s="25" t="n">
+      <c r="N28" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P28" s="2" t="n">
@@ -8595,10 +8599,10 @@
       <c r="M29" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N29" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O29" s="25" t="n">
+      <c r="N29" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P29" s="2" t="n">
@@ -8640,12 +8644,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
+    <row r="31" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -8743,10 +8747,10 @@
       <c r="M33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N33" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" s="25" t="n">
+      <c r="N33" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P33" s="2" t="n">
@@ -8824,10 +8828,10 @@
       <c r="M34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N34" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" s="25" t="n">
+      <c r="N34" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P34" s="2" t="n">
@@ -8905,10 +8909,10 @@
       <c r="M35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N35" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O35" s="25" t="n">
+      <c r="N35" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P35" s="2" t="n">
@@ -8986,10 +8990,10 @@
       <c r="M36" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N36" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O36" s="25" t="n">
+      <c r="N36" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O36" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P36" s="2" t="n">
@@ -9067,10 +9071,10 @@
       <c r="M37" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N37" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O37" s="25" t="n">
+      <c r="N37" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P37" s="2" t="n">
@@ -9148,10 +9152,10 @@
       <c r="M38" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O38" s="25" t="n">
+      <c r="N38" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P38" s="2" t="n">
@@ -9229,10 +9233,10 @@
       <c r="M39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N39" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O39" s="25" t="n">
+      <c r="N39" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P39" s="2" t="n">
@@ -9310,10 +9314,10 @@
       <c r="M40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N40" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O40" s="25" t="n">
+      <c r="N40" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P40" s="2" t="n">
@@ -9391,10 +9395,10 @@
       <c r="M41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O41" s="25" t="n">
+      <c r="N41" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P41" s="2" t="n">
@@ -9472,10 +9476,10 @@
       <c r="M42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N42" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O42" s="25" t="n">
+      <c r="N42" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O42" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P42" s="2" t="n">
@@ -9556,10 +9560,10 @@
       <c r="M43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N43" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O43" s="25" t="n">
+      <c r="N43" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P43" s="2" t="n">
@@ -9640,10 +9644,10 @@
       <c r="M44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N44" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O44" s="25" t="n">
+      <c r="N44" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P44" s="2" t="n">
@@ -9688,12 +9692,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26" t="s">
+    <row r="46" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="N46" s="27"/>
-      <c r="O46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -9789,10 +9793,10 @@
       <c r="M48" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N48" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O48" s="25" t="n">
+      <c r="N48" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P48" s="2" t="n">
@@ -9868,10 +9872,10 @@
       <c r="M49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N49" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O49" s="25" t="n">
+      <c r="N49" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O49" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P49" s="2" t="n">
@@ -9949,10 +9953,10 @@
       <c r="M50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N50" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O50" s="25" t="n">
+      <c r="N50" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O50" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P50" s="2" t="n">
@@ -10030,10 +10034,10 @@
       <c r="M51" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N51" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O51" s="25" t="n">
+      <c r="N51" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O51" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P51" s="2" t="n">
@@ -10111,10 +10115,10 @@
       <c r="M52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N52" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O52" s="25" t="n">
+      <c r="N52" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P52" s="2" t="n">
@@ -10192,10 +10196,10 @@
       <c r="M53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N53" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O53" s="25" t="n">
+      <c r="N53" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P53" s="2" t="n">
@@ -10273,10 +10277,10 @@
       <c r="M54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N54" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O54" s="25" t="n">
+      <c r="N54" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O54" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P54" s="2" t="n">
@@ -10354,10 +10358,10 @@
       <c r="M55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N55" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O55" s="25" t="n">
+      <c r="N55" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O55" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P55" s="2" t="n">
@@ -10435,10 +10439,10 @@
       <c r="M56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N56" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O56" s="25" t="n">
+      <c r="N56" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O56" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P56" s="2" t="n">
@@ -10516,10 +10520,10 @@
       <c r="M57" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N57" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O57" s="25" t="n">
+      <c r="N57" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P57" s="2" t="n">
@@ -10597,10 +10601,10 @@
       <c r="M58" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N58" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O58" s="25" t="n">
+      <c r="N58" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P58" s="2" t="n">
@@ -10678,10 +10682,10 @@
       <c r="M59" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N59" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O59" s="25" t="n">
+      <c r="N59" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O59" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P59" s="2" t="n">
@@ -10723,12 +10727,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="s">
+    <row r="61" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N61" s="27"/>
-      <c r="O61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -10824,10 +10828,10 @@
       <c r="M63" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N63" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O63" s="25" t="n">
+      <c r="N63" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O63" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P63" s="2" t="n">
@@ -10901,10 +10905,10 @@
       <c r="M64" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N64" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O64" s="25" t="n">
+      <c r="N64" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O64" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P64" s="2" t="n">
@@ -10978,10 +10982,10 @@
       <c r="M65" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N65" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O65" s="25" t="n">
+      <c r="N65" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O65" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P65" s="2" t="n">
@@ -11054,10 +11058,10 @@
       <c r="M66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N66" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O66" s="25" t="n">
+      <c r="N66" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O66" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P66" s="2" t="n">
@@ -11132,10 +11136,10 @@
       <c r="M67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N67" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O67" s="25" t="n">
+      <c r="N67" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O67" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P67" s="2" t="n">
@@ -11213,10 +11217,10 @@
       <c r="M68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N68" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O68" s="25" t="n">
+      <c r="N68" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O68" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P68" s="2" t="n">
@@ -11294,10 +11298,10 @@
       <c r="M69" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N69" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O69" s="25" t="n">
+      <c r="N69" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O69" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P69" s="2" t="n">
@@ -11375,10 +11379,10 @@
       <c r="M70" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N70" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O70" s="25" t="n">
+      <c r="N70" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O70" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P70" s="2" t="n">
@@ -11456,10 +11460,10 @@
       <c r="M71" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N71" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O71" s="25" t="n">
+      <c r="N71" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O71" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P71" s="2" t="n">
@@ -11537,10 +11541,10 @@
       <c r="M72" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N72" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O72" s="25" t="n">
+      <c r="N72" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O72" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P72" s="2" t="n">
@@ -11620,10 +11624,10 @@
       <c r="M73" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N73" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O73" s="25" t="n">
+      <c r="N73" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O73" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P73" s="2" t="n">
@@ -11705,10 +11709,10 @@
       <c r="M74" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N74" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O74" s="25" t="n">
+      <c r="N74" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O74" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P74" s="2" t="n">
@@ -11752,12 +11756,12 @@
         <v/>
       </c>
     </row>
-    <row r="76" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="26" t="s">
+    <row r="76" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="N76" s="27"/>
-      <c r="O76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -11851,10 +11855,10 @@
       <c r="M78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N78" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O78" s="25" t="n">
+      <c r="N78" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O78" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P78" s="2" t="n">
@@ -11924,10 +11928,10 @@
       <c r="M79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N79" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O79" s="25" t="n">
+      <c r="N79" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O79" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P79" s="2" t="n">
@@ -11996,10 +12000,10 @@
       <c r="M80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N80" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O80" s="25" t="n">
+      <c r="N80" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O80" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P80" s="2" t="n">
@@ -12069,10 +12073,10 @@
       <c r="M81" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N81" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O81" s="25" t="n">
+      <c r="N81" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O81" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P81" s="2" t="n">
@@ -12145,10 +12149,10 @@
       <c r="M82" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N82" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O82" s="25" t="n">
+      <c r="N82" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O82" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P82" s="2" t="n">
@@ -12224,10 +12228,10 @@
       <c r="M83" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N83" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O83" s="25" t="n">
+      <c r="N83" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O83" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P83" s="2" t="n">
@@ -12305,10 +12309,10 @@
       <c r="M84" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N84" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O84" s="25" t="n">
+      <c r="N84" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O84" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P84" s="2" t="n">
@@ -12386,10 +12390,10 @@
       <c r="M85" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N85" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O85" s="25" t="n">
+      <c r="N85" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O85" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P85" s="2" t="n">
@@ -12469,10 +12473,10 @@
       <c r="M86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N86" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O86" s="25" t="n">
+      <c r="N86" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O86" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P86" s="2" t="n">
@@ -12554,10 +12558,10 @@
       <c r="M87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N87" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O87" s="25" t="n">
+      <c r="N87" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O87" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P87" s="2" t="n">
@@ -12639,10 +12643,10 @@
       <c r="M88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N88" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="O88" s="25" t="n">
+      <c r="N88" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" s="26" t="n">
         <v>6</v>
       </c>
       <c r="P88" s="2" t="n">
@@ -12724,10 +12728,10 @@
       <c r="M89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N89" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="O89" s="25" t="n">
+      <c r="N89" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" s="26" t="n">
         <v>6</v>
       </c>
       <c r="P89" s="2" t="n">
@@ -12771,12 +12775,12 @@
         <v/>
       </c>
     </row>
-    <row r="91" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26" t="s">
+    <row r="91" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="N91" s="27"/>
-      <c r="O91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="29"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
@@ -12870,10 +12874,10 @@
       <c r="M93" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N93" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O93" s="25" t="n">
+      <c r="N93" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O93" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P93" s="2" t="n">
@@ -12945,10 +12949,10 @@
       <c r="M94" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N94" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O94" s="25" t="n">
+      <c r="N94" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O94" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P94" s="2" t="n">
@@ -13022,10 +13026,10 @@
       <c r="M95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N95" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O95" s="25" t="n">
+      <c r="N95" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O95" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P95" s="2" t="n">
@@ -13098,10 +13102,10 @@
       <c r="M96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N96" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O96" s="25" t="n">
+      <c r="N96" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O96" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P96" s="2" t="n">
@@ -13176,10 +13180,10 @@
       <c r="M97" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N97" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O97" s="25" t="n">
+      <c r="N97" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O97" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P97" s="2" t="n">
@@ -13257,10 +13261,10 @@
       <c r="M98" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N98" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O98" s="25" t="n">
+      <c r="N98" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O98" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P98" s="2" t="n">
@@ -13338,10 +13342,10 @@
       <c r="M99" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N99" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O99" s="25" t="n">
+      <c r="N99" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O99" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P99" s="2" t="n">
@@ -13419,10 +13423,10 @@
       <c r="M100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N100" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O100" s="25" t="n">
+      <c r="N100" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O100" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P100" s="2" t="n">
@@ -13500,10 +13504,10 @@
       <c r="M101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N101" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O101" s="25" t="n">
+      <c r="N101" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O101" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P101" s="2" t="n">
@@ -13583,10 +13587,10 @@
       <c r="M102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N102" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O102" s="25" t="n">
+      <c r="N102" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O102" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P102" s="2" t="n">
@@ -13668,10 +13672,10 @@
       <c r="M103" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N103" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O103" s="25" t="n">
+      <c r="N103" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O103" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P103" s="2" t="n">
@@ -13753,10 +13757,10 @@
       <c r="M104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N104" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O104" s="25" t="n">
+      <c r="N104" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O104" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P104" s="2" t="n">
@@ -13800,12 +13804,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26" t="s">
+    <row r="106" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="N106" s="27"/>
-      <c r="O106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="29"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
@@ -13899,10 +13903,10 @@
       <c r="M108" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N108" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O108" s="25" t="n">
+      <c r="N108" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O108" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P108" s="2" t="n">
@@ -13973,10 +13977,10 @@
       <c r="M109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N109" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O109" s="25" t="n">
+      <c r="N109" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O109" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P109" s="2" t="n">
@@ -14050,10 +14054,10 @@
       <c r="M110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N110" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O110" s="25" t="n">
+      <c r="N110" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O110" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P110" s="2" t="n">
@@ -14129,10 +14133,10 @@
       <c r="M111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N111" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O111" s="25" t="n">
+      <c r="N111" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O111" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P111" s="2" t="n">
@@ -14210,10 +14214,10 @@
       <c r="M112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N112" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O112" s="25" t="n">
+      <c r="N112" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O112" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P112" s="2" t="n">
@@ -14291,10 +14295,10 @@
       <c r="M113" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N113" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O113" s="25" t="n">
+      <c r="N113" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O113" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P113" s="2" t="n">
@@ -14372,10 +14376,10 @@
       <c r="M114" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N114" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O114" s="25" t="n">
+      <c r="N114" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O114" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P114" s="2" t="n">
@@ -14453,10 +14457,10 @@
       <c r="M115" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N115" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O115" s="25" t="n">
+      <c r="N115" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O115" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P115" s="2" t="n">
@@ -14534,10 +14538,10 @@
       <c r="M116" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N116" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O116" s="25" t="n">
+      <c r="N116" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O116" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P116" s="2" t="n">
@@ -14617,10 +14621,10 @@
       <c r="M117" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N117" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O117" s="25" t="n">
+      <c r="N117" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O117" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P117" s="2" t="n">
@@ -14702,10 +14706,10 @@
       <c r="M118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N118" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O118" s="25" t="n">
+      <c r="N118" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O118" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P118" s="2" t="n">
@@ -14789,10 +14793,10 @@
       <c r="M119" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N119" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O119" s="25" t="n">
+      <c r="N119" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O119" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P119" s="2" t="n">
@@ -14838,12 +14842,12 @@
         <v/>
       </c>
     </row>
-    <row r="121" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="26" t="s">
+    <row r="121" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N121" s="27"/>
-      <c r="O121" s="28"/>
+      <c r="N121" s="28"/>
+      <c r="O121" s="29"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
@@ -14937,10 +14941,10 @@
       <c r="M123" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N123" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O123" s="25" t="n">
+      <c r="N123" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O123" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P123" s="2" t="n">
@@ -15009,10 +15013,10 @@
       <c r="M124" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N124" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O124" s="25" t="n">
+      <c r="N124" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O124" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P124" s="2" t="n">
@@ -15084,10 +15088,10 @@
       <c r="M125" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N125" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O125" s="25" t="n">
+      <c r="N125" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O125" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P125" s="2" t="n">
@@ -15161,10 +15165,10 @@
       <c r="M126" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N126" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O126" s="25" t="n">
+      <c r="N126" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O126" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P126" s="2" t="n">
@@ -15238,10 +15242,10 @@
       <c r="M127" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N127" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O127" s="25" t="n">
+      <c r="N127" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O127" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P127" s="2" t="n">
@@ -15317,10 +15321,10 @@
       <c r="M128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N128" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O128" s="25" t="n">
+      <c r="N128" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O128" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P128" s="2" t="n">
@@ -15398,10 +15402,10 @@
       <c r="M129" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N129" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O129" s="25" t="n">
+      <c r="N129" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O129" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P129" s="2" t="n">
@@ -15479,10 +15483,10 @@
       <c r="M130" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N130" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O130" s="25" t="n">
+      <c r="N130" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O130" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P130" s="2" t="n">
@@ -15560,10 +15564,10 @@
       <c r="M131" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N131" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O131" s="25" t="n">
+      <c r="N131" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O131" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P131" s="2" t="n">
@@ -15641,10 +15645,10 @@
       <c r="M132" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N132" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O132" s="25" t="n">
+      <c r="N132" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O132" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P132" s="2" t="n">
@@ -15722,10 +15726,10 @@
       <c r="M133" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N133" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O133" s="25" t="n">
+      <c r="N133" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O133" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P133" s="2" t="n">
@@ -15805,10 +15809,10 @@
       <c r="M134" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N134" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O134" s="25" t="n">
+      <c r="N134" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O134" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P134" s="2" t="n">
@@ -15852,12 +15856,12 @@
         <v/>
       </c>
     </row>
-    <row r="136" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26" t="s">
+    <row r="136" s="27" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N136" s="27"/>
-      <c r="O136" s="28"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="29"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
@@ -15951,10 +15955,10 @@
       <c r="M138" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="N138" s="24" t="n">
+      <c r="N138" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="O138" s="25" t="n">
+      <c r="O138" s="26" t="n">
         <v>9</v>
       </c>
       <c r="P138" s="2" t="n">
@@ -16023,10 +16027,10 @@
       <c r="M139" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N139" s="24" t="n">
+      <c r="N139" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="O139" s="25" t="n">
+      <c r="O139" s="26" t="n">
         <v>9</v>
       </c>
       <c r="P139" s="2" t="n">
@@ -16096,10 +16100,10 @@
       <c r="M140" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N140" s="24" t="n">
+      <c r="N140" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="O140" s="25" t="n">
+      <c r="O140" s="26" t="n">
         <v>9</v>
       </c>
       <c r="P140" s="2" t="n">
@@ -16171,10 +16175,10 @@
       <c r="M141" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N141" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O141" s="25" t="n">
+      <c r="N141" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O141" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P141" s="2" t="n">
@@ -16248,10 +16252,10 @@
       <c r="M142" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N142" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O142" s="25" t="n">
+      <c r="N142" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O142" s="26" t="n">
         <v>8</v>
       </c>
       <c r="P142" s="2" t="n">
@@ -16327,10 +16331,10 @@
       <c r="M143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N143" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O143" s="25" t="n">
+      <c r="N143" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O143" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P143" s="2" t="n">
@@ -16408,10 +16412,10 @@
       <c r="M144" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N144" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O144" s="25" t="n">
+      <c r="N144" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O144" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P144" s="2" t="n">
@@ -16489,10 +16493,10 @@
       <c r="M145" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N145" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O145" s="25" t="n">
+      <c r="N145" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O145" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P145" s="2" t="n">
@@ -16572,10 +16576,10 @@
       <c r="M146" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N146" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O146" s="25" t="n">
+      <c r="N146" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O146" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P146" s="2" t="n">
@@ -16657,10 +16661,10 @@
       <c r="M147" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N147" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O147" s="25" t="n">
+      <c r="N147" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O147" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P147" s="2" t="n">
@@ -16742,10 +16746,10 @@
       <c r="M148" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N148" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O148" s="25" t="n">
+      <c r="N148" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O148" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P148" s="2" t="n">
@@ -16829,10 +16833,10 @@
       <c r="M149" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N149" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O149" s="25" t="n">
+      <c r="N149" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O149" s="26" t="n">
         <v>7</v>
       </c>
       <c r="P149" s="2" t="n">
@@ -16896,8 +16900,8 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
-      <c r="N164" s="24"/>
-      <c r="O164" s="25"/>
+      <c r="N164" s="25"/>
+      <c r="O164" s="26"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
@@ -16927,8 +16931,8 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="24"/>
-      <c r="O165" s="25"/>
+      <c r="N165" s="25"/>
+      <c r="O165" s="26"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
@@ -16959,8 +16963,8 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="24"/>
-      <c r="O166" s="25"/>
+      <c r="N166" s="25"/>
+      <c r="O166" s="26"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
@@ -16991,8 +16995,8 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
-      <c r="N167" s="24"/>
-      <c r="O167" s="25"/>
+      <c r="N167" s="25"/>
+      <c r="O167" s="26"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
@@ -17023,8 +17027,8 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
-      <c r="N168" s="24"/>
-      <c r="O168" s="25"/>
+      <c r="N168" s="25"/>
+      <c r="O168" s="26"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
@@ -17055,8 +17059,8 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="25"/>
+      <c r="N169" s="25"/>
+      <c r="O169" s="26"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
@@ -17087,8 +17091,8 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="24"/>
-      <c r="O170" s="25"/>
+      <c r="N170" s="25"/>
+      <c r="O170" s="26"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
@@ -17119,8 +17123,8 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="N171" s="24"/>
-      <c r="O171" s="25"/>
+      <c r="N171" s="25"/>
+      <c r="O171" s="26"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
@@ -17151,8 +17155,8 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
-      <c r="N172" s="24"/>
-      <c r="O172" s="25"/>
+      <c r="N172" s="25"/>
+      <c r="O172" s="26"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
@@ -17183,8 +17187,8 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="N173" s="24"/>
-      <c r="O173" s="25"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="26"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
@@ -17215,8 +17219,8 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="24"/>
-      <c r="O174" s="25"/>
+      <c r="N174" s="25"/>
+      <c r="O174" s="26"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
